--- a/Test Cases/Bits 0101 Tribe - Test Protocol Obstacle Avoidance Car.xlsx
+++ b/Test Cases/Bits 0101 Tribe - Test Protocol Obstacle Avoidance Car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\Sprints\Automotive Software BootCamp\Part 09 - Embedded SW Design\S_STATIC_05 Implement the obstacle avoidance car\Obstacle-Avoidance-Car\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A0710-3287-4156-8E93-E8F833F7BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E73AD-9623-4571-A1D1-C1EB42141A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
   <si>
     <t>MCAL Module</t>
   </si>
@@ -49,6 +49,12 @@
     <t>DCM Driver</t>
   </si>
   <si>
+    <t>ICU Driver</t>
+  </si>
+  <si>
+    <t>US Driver</t>
+  </si>
+  <si>
     <t>APP Module</t>
   </si>
   <si>
@@ -79,10 +85,10 @@
     <t>Test DIO initialization</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Call DIO_init with valid parameters</t>
-  </si>
-  <si>
-    <t>EN_DIO_Error_T is returned as DIO_OK</t>
+    <t xml:space="preserve"> 1. Call DIO_init with input cofiguration</t>
+  </si>
+  <si>
+    <t>the pin is initialized as input</t>
   </si>
   <si>
     <t>Matches Expected Result</t>
@@ -102,7 +108,7 @@
  3. Call DIO_read</t>
   </si>
   <si>
-    <t>u8_a_value is returned as 1</t>
+    <t>the reading's pin is High</t>
   </si>
   <si>
     <t>TC_DIO_003</t>
@@ -113,6 +119,9 @@
   <si>
     <t xml:space="preserve"> 1. Call DIO_init with valid parameters 
  2. Call DIO_write with a value of 1</t>
+  </si>
+  <si>
+    <t>the writing's pin is High</t>
   </si>
   <si>
     <t>TC_DIO_004</t>
@@ -127,7 +136,7 @@
  4. Call DIO_read</t>
   </si>
   <si>
-    <t>u8_a_value is returned as 0</t>
+    <t>the reading's pin is Low</t>
   </si>
   <si>
     <t>TC_DIO_005</t>
@@ -139,147 +148,29 @@
     <t xml:space="preserve"> 1. Call DIO_portInit with valid parameters</t>
   </si>
   <si>
+    <t>the pin is initialized</t>
+  </si>
+  <si>
     <t>TC_DIO_006</t>
   </si>
   <si>
     <t>Test port write</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1. Call DIO_portInit with valid parameters
- 2. Call DIO_portWrite with a value of 0x55 and a mask of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  0xFF (DIO_NO_MASK)</t>
-    </r>
+    <t xml:space="preserve"> 1. Call DIO_portInit with valid parameters
+ 2. Call DIO_portWrite with a value of 0x55.</t>
   </si>
   <si>
     <t>The specified port pins are set to 0x55</t>
   </si>
   <si>
-    <t>TC_DIO_007</t>
-  </si>
-  <si>
-    <t>Test port toggle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1. Call DIO_portInit with valid parameters
- 2. Call DIO_portWrite with a value of 0x55 and a mask of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0xFF (DIO_NO_MASK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
- 3. Call DIO_portToggle with a mask of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0xFF (DIO_NO_MASK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
- 4. Call DIO_portWrite with a value of 0xAA and a mask of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0xFF (DIO_NO_MASK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
- 5. Call DIO_portToggle with a mask of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0xFF (DIO_NO_MASK)</t>
-    </r>
-  </si>
-  <si>
-    <t>The specified port pins are toggled between 0x55 and 0xAA</t>
-  </si>
-  <si>
-    <t>TC_DIO_008</t>
-  </si>
-  <si>
-    <t>Re-Test with invalid data</t>
-  </si>
-  <si>
-    <t>Re-test cases from 1 to 7 with invalid data</t>
-  </si>
-  <si>
-    <t>Return DIO_ERROR</t>
-  </si>
-  <si>
     <t>TC_EXI_001</t>
   </si>
   <si>
     <t>Test EXI enablePIE</t>
   </si>
   <si>
-    <t>1. Call EXI_enablePIE with valid parameters (Correct interruptId and senseControl)</t>
+    <t>Call EXI_enablePIE with valid parameters (Correct interruptId and senseControl)</t>
   </si>
   <si>
     <t>STD_OK  is returned as u8 errorState</t>
@@ -288,7 +179,7 @@
     <t>TC_EXI_002</t>
   </si>
   <si>
-    <t>1. Call EXI_enablePIE with invalid parameters (Incorrect interruptId or senseControl)</t>
+    <t>Call EXI_enablePIE with invalid parameters (Incorrect interruptId or senseControl)</t>
   </si>
   <si>
     <t>STD_NOK  is returned as u8 errorState</t>
@@ -300,13 +191,13 @@
     <t>Test EXI disablePIE</t>
   </si>
   <si>
-    <t>1. Call EXI_disablePIE with valid parameters (Correct interruptId)</t>
+    <t>Call EXI_disablePIE with valid parameters (Correct interruptId)</t>
   </si>
   <si>
     <t>TC_EXI_004</t>
   </si>
   <si>
-    <t>1. Call EXI_disablePIE with invalid parameters (Incorrect interruptId)</t>
+    <t>Call EXI_disablePIE with invalid parameters (Incorrect interruptId)</t>
   </si>
   <si>
     <t>STD_NOK is returned as u8 errorState</t>
@@ -318,13 +209,13 @@
     <t>Test EXI intSetCallBack</t>
   </si>
   <si>
-    <t>1. Call EXI_intSetCallBack with valid parameters (Correct interruptId and Valid Pointer)</t>
+    <t>Call EXI_intSetCallBack with valid parameters (Correct interruptId and Valid Pointer)</t>
   </si>
   <si>
     <t>TC_EXI_006</t>
   </si>
   <si>
-    <t>1. Call EXI_intSetCallBack with invalid parameters (Incorrect interruptId or Null Pointer)</t>
+    <t>Call EXI_intSetCallBack with invalid parameters (Incorrect interruptId or Null Pointer)</t>
   </si>
   <si>
     <t>TC_TMR_001</t>
@@ -375,13 +266,13 @@
     <t>TC_BTN_001</t>
   </si>
   <si>
-    <t>Test Init</t>
-  </si>
-  <si>
-    <t>Call the MBTN_init passing the button configuration</t>
-  </si>
-  <si>
-    <t>Btn pins are set as inputs, enabling pullup resistor</t>
+    <t>Test BTN init</t>
+  </si>
+  <si>
+    <t>Call the BTN_init passing the button configuration</t>
+  </si>
+  <si>
+    <t>Btn pin is set as inputs</t>
   </si>
   <si>
     <t>TC_BTN_002</t>
@@ -390,10 +281,10 @@
     <t>Test not pressed</t>
   </si>
   <si>
-    <t>Call getBtnState with button not pressed</t>
-  </si>
-  <si>
-    <t>function returns NOT_PRESSED</t>
+    <t>Call BTN_readwith button not pressed</t>
+  </si>
+  <si>
+    <t>Btn pin is Low for pull down wiring</t>
   </si>
   <si>
     <t>TC_BTN_003</t>
@@ -402,32 +293,10 @@
     <t>Test short press</t>
   </si>
   <si>
-    <t>Call getBtnState with button pressed and released shortly</t>
-  </si>
-  <si>
-    <t>return is RELEASED</t>
-  </si>
-  <si>
-    <t>TC_BTN_004</t>
-  </si>
-  <si>
-    <t>Test long press/release</t>
-  </si>
-  <si>
-    <t>Call getBtnState with button pressed then after 2 seconds released</t>
-  </si>
-  <si>
-    <t>function breaks after 2 seconds exactly and returns LONG_RELEASED</t>
-  </si>
-  <si>
-    <t>TC_BTN_005</t>
-  </si>
-  <si>
-    <t>Test long press no release 
-for 2s</t>
-  </si>
-  <si>
-    <t>Call getBtnState with button pressed then after more than 2 seconds released</t>
+    <t>Call Btn_read with button pressed and released shortly</t>
+  </si>
+  <si>
+    <t>Btn pin is High for pull down wiring</t>
   </si>
   <si>
     <t>TC_LCD_001</t>
@@ -521,10 +390,10 @@
     <t>TC_KPD_001</t>
   </si>
   <si>
-    <t>KPD_initKPD</t>
-  </si>
-  <si>
-    <t>Call the KPD_initKPD</t>
+    <t>Test KPD initialization</t>
+  </si>
+  <si>
+    <t>Call KPD_init</t>
   </si>
   <si>
     <r>
@@ -579,7 +448,7 @@
     <t>TC_KPD_002</t>
   </si>
   <si>
-    <t>KPD_enableKPD</t>
+    <t>Test KPD enableKPD</t>
   </si>
   <si>
     <t>Call KPD_enableKPD</t>
@@ -617,7 +486,7 @@
     <t>TC_KPD_003</t>
   </si>
   <si>
-    <t>KPD_disableKPD</t>
+    <t>Test KPD disableKPD</t>
   </si>
   <si>
     <t>Call KPD_disableKPD</t>
@@ -656,7 +525,7 @@
     <t>TC_KPD_004</t>
   </si>
   <si>
-    <t>KPD getPressedKey</t>
+    <t>Test KPD getPressedKey</t>
   </si>
   <si>
     <t>Call KPD_getPressedKey with valid parameters (Valid Pointer)</t>
@@ -674,37 +543,160 @@
     <t>TC_DCM_001</t>
   </si>
   <si>
+    <t>Test DCM initialization</t>
+  </si>
+  <si>
+    <t>Call DCM_initialization with valid parameters (Valid Pointer)</t>
+  </si>
+  <si>
     <t>TC_DCM_002</t>
   </si>
   <si>
+    <t>Call DCM_initialization with invalid parameters (Null Pointer)</t>
+  </si>
+  <si>
     <t>TC_DCM_003</t>
   </si>
   <si>
-    <t>SWICU Driver</t>
-  </si>
-  <si>
-    <t>TC_SWICU_001</t>
-  </si>
-  <si>
-    <t>TC_SWICU_002</t>
-  </si>
-  <si>
-    <t>TC_SWICU_003</t>
-  </si>
-  <si>
-    <t>USI Driver</t>
+    <t>Test DCM controlDCM</t>
+  </si>
+  <si>
+    <t>Call DCM_controlDCM with valid parameters (Correct controlMode and Valid Pointer)</t>
+  </si>
+  <si>
+    <t>TC_DCM_004</t>
+  </si>
+  <si>
+    <t>Call DCM_controlDCM with invalid parameters (Incorrect controlMode or Null Pointer)</t>
+  </si>
+  <si>
+    <t>TC_DCM_005</t>
+  </si>
+  <si>
+    <t>Test DCM controlDCMSpeed</t>
+  </si>
+  <si>
+    <t>Call DCM_controlDCMSpeed with valid parameters (Correct speedPercentage)</t>
+  </si>
+  <si>
+    <t>TC_DCM_006</t>
+  </si>
+  <si>
+    <t>Call DCM_controlDCMSpeed with invalid parameters (Inorrect speedPercentage)</t>
+  </si>
+  <si>
+    <t>TC_ICU_001</t>
+  </si>
+  <si>
+    <t>Test ICU init</t>
+  </si>
+  <si>
+    <t>Call ICU_init with valid parameters (Valid Pointer)</t>
+  </si>
+  <si>
+    <t>valid is returned as EN_state errorstate</t>
+  </si>
+  <si>
+    <t>TC_ICU_002</t>
+  </si>
+  <si>
+    <t>Call ICU_init with invalid parameters (Null pointer)</t>
+  </si>
+  <si>
+    <t>invalid is returned as EN_state errorstate</t>
+  </si>
+  <si>
+    <t>TC_ICU_003</t>
+  </si>
+  <si>
+    <t>Test ICU setCallBack</t>
+  </si>
+  <si>
+    <t>Test ICU_setCallBack with valid parameters (Valid Pointer)</t>
+  </si>
+  <si>
+    <t>TC_ICU_004</t>
+  </si>
+  <si>
+    <t>Test ICU_setCallBack with invalid parameters (Null Pointer)</t>
+  </si>
+  <si>
+    <t>TC_ICU_005</t>
+  </si>
+  <si>
+    <t>Test ICU setEdgeDetectionType</t>
+  </si>
+  <si>
+    <t>Call ICU_setEdgeDetectionType with valid parameters (Rising or Falling edge)</t>
+  </si>
+  <si>
+    <t>TC_ICU_006</t>
+  </si>
+  <si>
+    <t>Call ICU_setEdgeDetectionType with invalid parameters</t>
+  </si>
+  <si>
+    <t>TC_ICU_007</t>
+  </si>
+  <si>
+    <t>Test ICU getInputCaptureValue</t>
+  </si>
+  <si>
+    <t>Call  ICU_getInputCaptureValue() function</t>
+  </si>
+  <si>
+    <t>read the timer value correctly</t>
+  </si>
+  <si>
+    <t>TC_ICU_008</t>
+  </si>
+  <si>
+    <t>Test ICU clearTimerValue</t>
+  </si>
+  <si>
+    <t>Call ICU_clearTimerValue() function</t>
+  </si>
+  <si>
+    <t>clear the timer value correctly</t>
+  </si>
+  <si>
+    <t>TC_ICU_009</t>
+  </si>
+  <si>
+    <t>Test ICU deInit</t>
+  </si>
+  <si>
+    <t>Call TC_ICU_008() function</t>
+  </si>
+  <si>
+    <t>disable the timer clock correctly</t>
   </si>
   <si>
     <t>TC_US_001</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
-  </si>
-  <si>
-    <t>TC_USI_002</t>
-  </si>
-  <si>
-    <t>TC_USI_003</t>
+    <t>Test US_init</t>
+  </si>
+  <si>
+    <t>Call US_init with valid parameters (Correct pin and port for trigger, and Correct echo interrupt pin)</t>
+  </si>
+  <si>
+    <t>TC_US_002</t>
+  </si>
+  <si>
+    <t>Call US_init with invalid parameters (Incorrect pin and port for trigger, and Incorrect echo interrupt pin)</t>
+  </si>
+  <si>
+    <t>TC_US_003</t>
+  </si>
+  <si>
+    <t>Test US_readDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call US_readDistance() function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">send the trigger signal and the distance returned correctly </t>
   </si>
   <si>
     <t>APP</t>
@@ -713,22 +705,93 @@
     <t>TC_APP_001</t>
   </si>
   <si>
+    <t>us_reading &gt;70cm</t>
+  </si>
+  <si>
+    <t>adjust the ultrasonic sensor more than 70cm For 9 seconds</t>
+  </si>
+  <si>
+    <t>Car moves forward with 30% of its speed then after 5 seconds the speed
+increased to 50%.</t>
+  </si>
+  <si>
     <t>TC_APP_002</t>
   </si>
   <si>
+    <t>30&lt;us_reading &lt;=70cm</t>
+  </si>
+  <si>
+    <t>adjust the ultrasonic sensor value between 30cm and 70cm</t>
+  </si>
+  <si>
+    <t>Car moves forward with 30% of its speed.</t>
+  </si>
+  <si>
     <t>TC_APP_003</t>
   </si>
   <si>
+    <t>20&lt;us_reading &lt;=30cm</t>
+  </si>
+  <si>
+    <t>1. adjust the ultrasonic sensor value between 20cm and 30cm.
+2. increase the ultrasonic sensor value gradually to 31 cm</t>
+  </si>
+  <si>
+    <t>1. Car moves backward with 30%.
+2. once the ultrasonic sensor value  reaches 31 cm car will stop then rotate 90 
+ then the Car moves forward with 30% of its speed.</t>
+  </si>
+  <si>
+    <t>TC_APP_004</t>
+  </si>
+  <si>
+    <t>us_reading &lt;=20cm</t>
+  </si>
+  <si>
+    <t>adjust the ultrasonic sensor less than 20cm</t>
+  </si>
+  <si>
+    <t>1. Car will stop then rotate 90 four times as the reading doesn't increase.
+2. then car stop waiting for obstacle to be removed.</t>
+  </si>
+  <si>
     <t>User Stories</t>
   </si>
   <si>
     <t>US_APP_001</t>
   </si>
   <si>
+    <t>Press BTN 0</t>
+  </si>
+  <si>
+    <t>press button 0 at the running time after 5 seconds of the select direction time out finished</t>
+  </si>
+  <si>
+    <t>Nothing happens</t>
+  </si>
+  <si>
     <t>US_APP_002</t>
   </si>
   <si>
+    <t>Double press on KPD Start</t>
+  </si>
+  <si>
+    <t>press start button on the begining of the program then press again</t>
+  </si>
+  <si>
+    <t>The program start at first press but nothing happens for 2nd press</t>
+  </si>
+  <si>
     <t>US_APP_003</t>
+  </si>
+  <si>
+    <t>Double press on KPD Stop</t>
+  </si>
+  <si>
+    <t>press stop button on the running time of the program then press again.</t>
+  </si>
+  <si>
+    <t>The program stop at first press but nothing happens for 2nd press</t>
   </si>
 </sst>
 </file>
@@ -841,7 +904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -955,22 +1018,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF274E13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1026,13 +1078,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,15 +1100,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,7 +1367,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -1330,20 +1376,20 @@
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
     <col min="4" max="4" width="53.88671875" customWidth="1"/>
     <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1366,12 +1412,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1394,14 +1440,14 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="33"/>
+      <c r="A3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1425,22 +1471,22 @@
     </row>
     <row r="4" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1464,14 +1510,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1494,14 +1540,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1525,22 +1571,22 @@
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1565,22 +1611,22 @@
     </row>
     <row r="8" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1605,22 +1651,22 @@
     </row>
     <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1645,22 +1691,22 @@
     </row>
     <row r="10" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1685,22 +1731,22 @@
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1725,22 +1771,22 @@
     </row>
     <row r="12" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1763,25 +1809,15 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>22</v>
-      </c>
+    <row r="13" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1804,23 +1840,23 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>21</v>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1843,54 +1879,64 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+    <row r="15" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1915,22 +1961,22 @@
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="C17" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1955,22 +2001,22 @@
     </row>
     <row r="18" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1994,23 +2040,23 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>22</v>
+      <c r="E19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2033,64 +2079,54 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>22</v>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2113,54 +2149,64 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+    <row r="22" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2185,22 +2231,22 @@
     </row>
     <row r="24" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2223,144 +2269,144 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="25" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="E27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2383,45 +2429,35 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+    <row r="30" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -2437,10 +2473,10 @@
         <v>93</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2477,10 +2513,10 @@
         <v>97</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2503,24 +2539,24 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>22</v>
+      <c r="D33" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2543,54 +2579,64 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2613,24 +2659,24 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2653,24 +2699,24 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>22</v>
+    <row r="37" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2693,64 +2739,54 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+    <row r="38" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2773,24 +2809,24 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2813,24 +2849,24 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="C41" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>22</v>
+      <c r="D41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2853,54 +2889,64 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
+    <row r="42" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>22</v>
+      <c r="C43" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2923,64 +2969,54 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
+    <row r="44" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="D45" s="13" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3005,22 +3041,22 @@
     </row>
     <row r="46" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3044,23 +3080,23 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>22</v>
+      <c r="C47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3083,45 +3119,65 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+    <row r="48" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
+      <c r="C49" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3145,13 +3201,23 @@
     </row>
     <row r="50" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
+        <v>149</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3173,75 +3239,95 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+    <row r="51" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3265,13 +3351,23 @@
     </row>
     <row r="54" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3294,14 +3390,24 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
+      <c r="A55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3323,47 +3429,65 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+    <row r="56" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
+      <c r="E56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3387,13 +3511,23 @@
     </row>
     <row r="58" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3417,13 +3551,23 @@
     </row>
     <row r="59" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3445,45 +3589,55 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
+    <row r="60" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31"/>
+      <c r="A61" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3507,13 +3661,23 @@
     </row>
     <row r="62" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
+        <v>180</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3537,13 +3701,23 @@
     </row>
     <row r="63" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
+        <v>183</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3566,14 +3740,24 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
+      <c r="A64" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3596,14 +3780,14 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="31"/>
+      <c r="A65" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3625,45 +3809,55 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-    </row>
-    <row r="67" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+    </row>
+    <row r="67" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10"/>
+        <v>190</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3686,2835 +3880,3075 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
-    </row>
-    <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F69" s="26"/>
-    </row>
-    <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F70" s="26"/>
-    </row>
-    <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F71" s="26"/>
-    </row>
-    <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F72" s="26"/>
-    </row>
-    <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F73" s="26"/>
-    </row>
-    <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F74" s="26"/>
+      <c r="A68" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+    </row>
+    <row r="70" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+    </row>
+    <row r="72" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F75" s="26"/>
+      <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F76" s="26"/>
+      <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F77" s="26"/>
+      <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F78" s="26"/>
+      <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F79" s="26"/>
+      <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F80" s="26"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F81" s="26"/>
+      <c r="F81" s="24"/>
     </row>
     <row r="82" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F82" s="26"/>
+      <c r="F82" s="24"/>
     </row>
     <row r="83" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F83" s="26"/>
+      <c r="F83" s="24"/>
     </row>
     <row r="84" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F84" s="26"/>
+      <c r="F84" s="24"/>
     </row>
     <row r="85" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F85" s="26"/>
+      <c r="F85" s="24"/>
     </row>
     <row r="86" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F86" s="26"/>
+      <c r="F86" s="24"/>
     </row>
     <row r="87" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F87" s="26"/>
+      <c r="F87" s="24"/>
     </row>
     <row r="88" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F88" s="26"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F89" s="26"/>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F90" s="26"/>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F91" s="26"/>
+      <c r="F91" s="24"/>
     </row>
     <row r="92" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F92" s="26"/>
+      <c r="F92" s="24"/>
     </row>
     <row r="93" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F93" s="26"/>
+      <c r="F93" s="24"/>
     </row>
     <row r="94" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F94" s="26"/>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F95" s="26"/>
+      <c r="F95" s="24"/>
     </row>
     <row r="96" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F96" s="26"/>
+      <c r="F96" s="24"/>
     </row>
     <row r="97" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F97" s="26"/>
+      <c r="F97" s="24"/>
     </row>
     <row r="98" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F98" s="26"/>
+      <c r="F98" s="24"/>
     </row>
     <row r="99" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F99" s="26"/>
+      <c r="F99" s="24"/>
     </row>
     <row r="100" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F100" s="26"/>
+      <c r="F100" s="24"/>
     </row>
     <row r="101" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F101" s="26"/>
+      <c r="F101" s="24"/>
     </row>
     <row r="102" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F102" s="26"/>
+      <c r="F102" s="24"/>
     </row>
     <row r="103" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F103" s="26"/>
+      <c r="F103" s="24"/>
     </row>
     <row r="104" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F104" s="26"/>
+      <c r="F104" s="24"/>
     </row>
     <row r="105" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F105" s="26"/>
+      <c r="F105" s="24"/>
     </row>
     <row r="106" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F106" s="26"/>
+      <c r="F106" s="24"/>
     </row>
     <row r="107" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F107" s="26"/>
+      <c r="F107" s="24"/>
     </row>
     <row r="108" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F108" s="26"/>
+      <c r="F108" s="24"/>
     </row>
     <row r="109" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F109" s="26"/>
+      <c r="F109" s="24"/>
     </row>
     <row r="110" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F110" s="26"/>
+      <c r="F110" s="24"/>
     </row>
     <row r="111" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F111" s="26"/>
+      <c r="F111" s="24"/>
     </row>
     <row r="112" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F112" s="26"/>
+      <c r="F112" s="24"/>
     </row>
     <row r="113" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F113" s="26"/>
+      <c r="F113" s="24"/>
     </row>
     <row r="114" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F114" s="26"/>
+      <c r="F114" s="24"/>
     </row>
     <row r="115" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F115" s="26"/>
+      <c r="F115" s="24"/>
     </row>
     <row r="116" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F116" s="26"/>
+      <c r="F116" s="24"/>
     </row>
     <row r="117" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F117" s="26"/>
+      <c r="F117" s="24"/>
     </row>
     <row r="118" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F118" s="26"/>
+      <c r="F118" s="24"/>
     </row>
     <row r="119" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F119" s="26"/>
+      <c r="F119" s="24"/>
     </row>
     <row r="120" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F120" s="26"/>
+      <c r="F120" s="24"/>
     </row>
     <row r="121" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F121" s="26"/>
+      <c r="F121" s="24"/>
     </row>
     <row r="122" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F122" s="26"/>
+      <c r="F122" s="24"/>
     </row>
     <row r="123" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F123" s="26"/>
+      <c r="F123" s="24"/>
     </row>
     <row r="124" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F124" s="26"/>
+      <c r="F124" s="24"/>
     </row>
     <row r="125" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F125" s="26"/>
+      <c r="F125" s="24"/>
     </row>
     <row r="126" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F126" s="26"/>
+      <c r="F126" s="24"/>
     </row>
     <row r="127" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F127" s="26"/>
+      <c r="F127" s="24"/>
     </row>
     <row r="128" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F128" s="26"/>
+      <c r="F128" s="24"/>
     </row>
     <row r="129" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F129" s="26"/>
+      <c r="F129" s="24"/>
     </row>
     <row r="130" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F130" s="26"/>
+      <c r="F130" s="24"/>
     </row>
     <row r="131" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F131" s="26"/>
+      <c r="F131" s="24"/>
     </row>
     <row r="132" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F132" s="26"/>
+      <c r="F132" s="24"/>
     </row>
     <row r="133" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F133" s="26"/>
+      <c r="F133" s="24"/>
     </row>
     <row r="134" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F134" s="26"/>
+      <c r="F134" s="24"/>
     </row>
     <row r="135" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F135" s="26"/>
+      <c r="F135" s="24"/>
     </row>
     <row r="136" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F136" s="26"/>
+      <c r="F136" s="24"/>
     </row>
     <row r="137" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F137" s="26"/>
+      <c r="F137" s="24"/>
     </row>
     <row r="138" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F138" s="26"/>
+      <c r="F138" s="24"/>
     </row>
     <row r="139" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F139" s="26"/>
+      <c r="F139" s="24"/>
     </row>
     <row r="140" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F140" s="26"/>
+      <c r="F140" s="24"/>
     </row>
     <row r="141" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F141" s="26"/>
+      <c r="F141" s="24"/>
     </row>
     <row r="142" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F142" s="26"/>
+      <c r="F142" s="24"/>
     </row>
     <row r="143" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F143" s="26"/>
+      <c r="F143" s="24"/>
     </row>
     <row r="144" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F144" s="26"/>
+      <c r="F144" s="24"/>
     </row>
     <row r="145" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F145" s="26"/>
+      <c r="F145" s="24"/>
     </row>
     <row r="146" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F146" s="26"/>
+      <c r="F146" s="24"/>
     </row>
     <row r="147" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F147" s="26"/>
+      <c r="F147" s="24"/>
     </row>
     <row r="148" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F148" s="26"/>
+      <c r="F148" s="24"/>
     </row>
     <row r="149" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F149" s="26"/>
+      <c r="F149" s="24"/>
     </row>
     <row r="150" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F150" s="26"/>
+      <c r="F150" s="24"/>
     </row>
     <row r="151" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F151" s="26"/>
+      <c r="F151" s="24"/>
     </row>
     <row r="152" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F152" s="26"/>
+      <c r="F152" s="24"/>
     </row>
     <row r="153" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F153" s="26"/>
+      <c r="F153" s="24"/>
     </row>
     <row r="154" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F154" s="26"/>
+      <c r="F154" s="24"/>
     </row>
     <row r="155" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F155" s="26"/>
+      <c r="F155" s="24"/>
     </row>
     <row r="156" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F156" s="26"/>
+      <c r="F156" s="24"/>
     </row>
     <row r="157" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F157" s="26"/>
+      <c r="F157" s="24"/>
     </row>
     <row r="158" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F158" s="26"/>
+      <c r="F158" s="24"/>
     </row>
     <row r="159" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F159" s="26"/>
+      <c r="F159" s="24"/>
     </row>
     <row r="160" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F160" s="26"/>
+      <c r="F160" s="24"/>
     </row>
     <row r="161" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F161" s="26"/>
+      <c r="F161" s="24"/>
     </row>
     <row r="162" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F162" s="26"/>
+      <c r="F162" s="24"/>
     </row>
     <row r="163" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F163" s="26"/>
+      <c r="F163" s="24"/>
     </row>
     <row r="164" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F164" s="26"/>
+      <c r="F164" s="24"/>
     </row>
     <row r="165" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F165" s="26"/>
+      <c r="F165" s="24"/>
     </row>
     <row r="166" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F166" s="26"/>
+      <c r="F166" s="24"/>
     </row>
     <row r="167" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F167" s="26"/>
+      <c r="F167" s="24"/>
     </row>
     <row r="168" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F168" s="26"/>
+      <c r="F168" s="24"/>
     </row>
     <row r="169" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F169" s="26"/>
+      <c r="F169" s="24"/>
     </row>
     <row r="170" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F170" s="26"/>
+      <c r="F170" s="24"/>
     </row>
     <row r="171" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F171" s="26"/>
+      <c r="F171" s="24"/>
     </row>
     <row r="172" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F172" s="26"/>
+      <c r="F172" s="24"/>
     </row>
     <row r="173" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F173" s="26"/>
+      <c r="F173" s="24"/>
     </row>
     <row r="174" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F174" s="26"/>
+      <c r="F174" s="24"/>
     </row>
     <row r="175" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F175" s="26"/>
+      <c r="F175" s="24"/>
     </row>
     <row r="176" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F176" s="26"/>
+      <c r="F176" s="24"/>
     </row>
     <row r="177" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F177" s="26"/>
+      <c r="F177" s="24"/>
     </row>
     <row r="178" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F178" s="26"/>
+      <c r="F178" s="24"/>
     </row>
     <row r="179" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F179" s="26"/>
+      <c r="F179" s="24"/>
     </row>
     <row r="180" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F180" s="26"/>
+      <c r="F180" s="24"/>
     </row>
     <row r="181" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F181" s="26"/>
+      <c r="F181" s="24"/>
     </row>
     <row r="182" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F182" s="26"/>
+      <c r="F182" s="24"/>
     </row>
     <row r="183" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F183" s="26"/>
+      <c r="F183" s="24"/>
     </row>
     <row r="184" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F184" s="26"/>
+      <c r="F184" s="24"/>
     </row>
     <row r="185" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F185" s="26"/>
+      <c r="F185" s="24"/>
     </row>
     <row r="186" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F186" s="26"/>
+      <c r="F186" s="24"/>
     </row>
     <row r="187" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F187" s="26"/>
+      <c r="F187" s="24"/>
     </row>
     <row r="188" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F188" s="26"/>
+      <c r="F188" s="24"/>
     </row>
     <row r="189" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F189" s="26"/>
+      <c r="F189" s="24"/>
     </row>
     <row r="190" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F190" s="26"/>
+      <c r="F190" s="24"/>
     </row>
     <row r="191" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F191" s="26"/>
+      <c r="F191" s="24"/>
     </row>
     <row r="192" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F192" s="26"/>
+      <c r="F192" s="24"/>
     </row>
     <row r="193" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F193" s="26"/>
+      <c r="F193" s="24"/>
     </row>
     <row r="194" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F194" s="26"/>
+      <c r="F194" s="24"/>
     </row>
     <row r="195" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F195" s="26"/>
+      <c r="F195" s="24"/>
     </row>
     <row r="196" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F196" s="26"/>
+      <c r="F196" s="24"/>
     </row>
     <row r="197" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F197" s="26"/>
+      <c r="F197" s="24"/>
     </row>
     <row r="198" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F198" s="26"/>
+      <c r="F198" s="24"/>
     </row>
     <row r="199" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F199" s="26"/>
+      <c r="F199" s="24"/>
     </row>
     <row r="200" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F200" s="26"/>
+      <c r="F200" s="24"/>
     </row>
     <row r="201" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F201" s="26"/>
+      <c r="F201" s="24"/>
     </row>
     <row r="202" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F202" s="26"/>
+      <c r="F202" s="24"/>
     </row>
     <row r="203" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F203" s="26"/>
+      <c r="F203" s="24"/>
     </row>
     <row r="204" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F204" s="26"/>
+      <c r="F204" s="24"/>
     </row>
     <row r="205" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F205" s="26"/>
+      <c r="F205" s="24"/>
     </row>
     <row r="206" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F206" s="26"/>
+      <c r="F206" s="24"/>
     </row>
     <row r="207" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F207" s="26"/>
+      <c r="F207" s="24"/>
     </row>
     <row r="208" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F208" s="26"/>
+      <c r="F208" s="24"/>
     </row>
     <row r="209" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F209" s="26"/>
+      <c r="F209" s="24"/>
     </row>
     <row r="210" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F210" s="26"/>
+      <c r="F210" s="24"/>
     </row>
     <row r="211" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F211" s="26"/>
+      <c r="F211" s="24"/>
     </row>
     <row r="212" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F212" s="26"/>
+      <c r="F212" s="24"/>
     </row>
     <row r="213" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F213" s="26"/>
+      <c r="F213" s="24"/>
     </row>
     <row r="214" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F214" s="26"/>
+      <c r="F214" s="24"/>
     </row>
     <row r="215" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F215" s="26"/>
+      <c r="F215" s="24"/>
     </row>
     <row r="216" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F216" s="26"/>
+      <c r="F216" s="24"/>
     </row>
     <row r="217" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F217" s="26"/>
+      <c r="F217" s="24"/>
     </row>
     <row r="218" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F218" s="26"/>
+      <c r="F218" s="24"/>
     </row>
     <row r="219" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F219" s="26"/>
+      <c r="F219" s="24"/>
     </row>
     <row r="220" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F220" s="26"/>
+      <c r="F220" s="24"/>
     </row>
     <row r="221" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F221" s="26"/>
+      <c r="F221" s="24"/>
     </row>
     <row r="222" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F222" s="26"/>
+      <c r="F222" s="24"/>
     </row>
     <row r="223" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F223" s="26"/>
+      <c r="F223" s="24"/>
     </row>
     <row r="224" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F224" s="26"/>
+      <c r="F224" s="24"/>
     </row>
     <row r="225" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F225" s="26"/>
+      <c r="F225" s="24"/>
     </row>
     <row r="226" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F226" s="26"/>
+      <c r="F226" s="24"/>
     </row>
     <row r="227" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F227" s="26"/>
+      <c r="F227" s="24"/>
     </row>
     <row r="228" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F228" s="26"/>
+      <c r="F228" s="24"/>
     </row>
     <row r="229" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F229" s="26"/>
+      <c r="F229" s="24"/>
     </row>
     <row r="230" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F230" s="26"/>
+      <c r="F230" s="24"/>
     </row>
     <row r="231" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F231" s="26"/>
+      <c r="F231" s="24"/>
     </row>
     <row r="232" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F232" s="26"/>
+      <c r="F232" s="24"/>
     </row>
     <row r="233" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F233" s="26"/>
+      <c r="F233" s="24"/>
     </row>
     <row r="234" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F234" s="26"/>
+      <c r="F234" s="24"/>
     </row>
     <row r="235" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F235" s="26"/>
+      <c r="F235" s="24"/>
     </row>
     <row r="236" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F236" s="26"/>
+      <c r="F236" s="24"/>
     </row>
     <row r="237" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F237" s="26"/>
+      <c r="F237" s="24"/>
     </row>
     <row r="238" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F238" s="26"/>
+      <c r="F238" s="24"/>
     </row>
     <row r="239" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F239" s="26"/>
+      <c r="F239" s="24"/>
     </row>
     <row r="240" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F240" s="26"/>
+      <c r="F240" s="24"/>
     </row>
     <row r="241" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F241" s="26"/>
+      <c r="F241" s="24"/>
     </row>
     <row r="242" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F242" s="26"/>
+      <c r="F242" s="24"/>
     </row>
     <row r="243" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F243" s="26"/>
+      <c r="F243" s="24"/>
     </row>
     <row r="244" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F244" s="26"/>
+      <c r="F244" s="24"/>
     </row>
     <row r="245" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F245" s="26"/>
+      <c r="F245" s="24"/>
     </row>
     <row r="246" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F246" s="26"/>
+      <c r="F246" s="24"/>
     </row>
     <row r="247" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F247" s="26"/>
+      <c r="F247" s="24"/>
     </row>
     <row r="248" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F248" s="26"/>
+      <c r="F248" s="24"/>
     </row>
     <row r="249" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F249" s="26"/>
+      <c r="F249" s="24"/>
     </row>
     <row r="250" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F250" s="26"/>
+      <c r="F250" s="24"/>
     </row>
     <row r="251" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F251" s="26"/>
+      <c r="F251" s="24"/>
     </row>
     <row r="252" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F252" s="26"/>
+      <c r="F252" s="24"/>
     </row>
     <row r="253" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F253" s="26"/>
+      <c r="F253" s="24"/>
     </row>
     <row r="254" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F254" s="26"/>
+      <c r="F254" s="24"/>
     </row>
     <row r="255" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F255" s="26"/>
+      <c r="F255" s="24"/>
     </row>
     <row r="256" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F256" s="26"/>
+      <c r="F256" s="24"/>
     </row>
     <row r="257" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F257" s="26"/>
+      <c r="F257" s="24"/>
     </row>
     <row r="258" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F258" s="26"/>
+      <c r="F258" s="24"/>
     </row>
     <row r="259" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F259" s="26"/>
+      <c r="F259" s="24"/>
     </row>
     <row r="260" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F260" s="26"/>
+      <c r="F260" s="24"/>
     </row>
     <row r="261" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F261" s="26"/>
+      <c r="F261" s="24"/>
     </row>
     <row r="262" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F262" s="26"/>
+      <c r="F262" s="24"/>
     </row>
     <row r="263" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F263" s="26"/>
+      <c r="F263" s="24"/>
     </row>
     <row r="264" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F264" s="26"/>
+      <c r="F264" s="24"/>
     </row>
     <row r="265" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F265" s="26"/>
+      <c r="F265" s="24"/>
     </row>
     <row r="266" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F266" s="26"/>
+      <c r="F266" s="24"/>
     </row>
     <row r="267" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F267" s="26"/>
+      <c r="F267" s="24"/>
     </row>
     <row r="268" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F268" s="26"/>
+      <c r="F268" s="24"/>
     </row>
     <row r="269" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F269" s="26"/>
+      <c r="F269" s="24"/>
     </row>
     <row r="270" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F270" s="26"/>
+      <c r="F270" s="24"/>
     </row>
     <row r="271" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F271" s="26"/>
+      <c r="F271" s="24"/>
     </row>
     <row r="272" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F272" s="26"/>
+      <c r="F272" s="24"/>
     </row>
     <row r="273" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F273" s="26"/>
+      <c r="F273" s="24"/>
     </row>
     <row r="274" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F274" s="26"/>
+      <c r="F274" s="24"/>
     </row>
     <row r="275" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F275" s="26"/>
+      <c r="F275" s="24"/>
     </row>
     <row r="276" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F276" s="26"/>
+      <c r="F276" s="24"/>
     </row>
     <row r="277" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F277" s="26"/>
+      <c r="F277" s="24"/>
     </row>
     <row r="278" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F278" s="26"/>
+      <c r="F278" s="24"/>
     </row>
     <row r="279" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F279" s="26"/>
+      <c r="F279" s="24"/>
     </row>
     <row r="280" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F280" s="26"/>
+      <c r="F280" s="24"/>
     </row>
     <row r="281" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F281" s="26"/>
+      <c r="F281" s="24"/>
     </row>
     <row r="282" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F282" s="26"/>
+      <c r="F282" s="24"/>
     </row>
     <row r="283" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F283" s="26"/>
+      <c r="F283" s="24"/>
     </row>
     <row r="284" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F284" s="26"/>
+      <c r="F284" s="24"/>
     </row>
     <row r="285" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F285" s="26"/>
+      <c r="F285" s="24"/>
     </row>
     <row r="286" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F286" s="26"/>
+      <c r="F286" s="24"/>
     </row>
     <row r="287" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F287" s="26"/>
+      <c r="F287" s="24"/>
     </row>
     <row r="288" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F288" s="26"/>
+      <c r="F288" s="24"/>
     </row>
     <row r="289" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F289" s="26"/>
+      <c r="F289" s="24"/>
     </row>
     <row r="290" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F290" s="26"/>
+      <c r="F290" s="24"/>
     </row>
     <row r="291" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F291" s="26"/>
+      <c r="F291" s="24"/>
     </row>
     <row r="292" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F292" s="26"/>
+      <c r="F292" s="24"/>
     </row>
     <row r="293" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F293" s="26"/>
+      <c r="F293" s="24"/>
     </row>
     <row r="294" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F294" s="26"/>
+      <c r="F294" s="24"/>
     </row>
     <row r="295" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F295" s="26"/>
+      <c r="F295" s="24"/>
     </row>
     <row r="296" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F296" s="26"/>
+      <c r="F296" s="24"/>
     </row>
     <row r="297" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F297" s="26"/>
+      <c r="F297" s="24"/>
     </row>
     <row r="298" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F298" s="26"/>
+      <c r="F298" s="24"/>
     </row>
     <row r="299" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F299" s="26"/>
+      <c r="F299" s="24"/>
     </row>
     <row r="300" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F300" s="26"/>
+      <c r="F300" s="24"/>
     </row>
     <row r="301" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F301" s="26"/>
+      <c r="F301" s="24"/>
     </row>
     <row r="302" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F302" s="26"/>
+      <c r="F302" s="24"/>
     </row>
     <row r="303" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F303" s="26"/>
+      <c r="F303" s="24"/>
     </row>
     <row r="304" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F304" s="26"/>
+      <c r="F304" s="24"/>
     </row>
     <row r="305" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F305" s="26"/>
+      <c r="F305" s="24"/>
     </row>
     <row r="306" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F306" s="26"/>
+      <c r="F306" s="24"/>
     </row>
     <row r="307" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F307" s="26"/>
+      <c r="F307" s="24"/>
     </row>
     <row r="308" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F308" s="26"/>
+      <c r="F308" s="24"/>
     </row>
     <row r="309" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F309" s="26"/>
+      <c r="F309" s="24"/>
     </row>
     <row r="310" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F310" s="26"/>
+      <c r="F310" s="24"/>
     </row>
     <row r="311" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F311" s="26"/>
+      <c r="F311" s="24"/>
     </row>
     <row r="312" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F312" s="26"/>
+      <c r="F312" s="24"/>
     </row>
     <row r="313" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F313" s="26"/>
+      <c r="F313" s="24"/>
     </row>
     <row r="314" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F314" s="26"/>
+      <c r="F314" s="24"/>
     </row>
     <row r="315" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F315" s="26"/>
+      <c r="F315" s="24"/>
     </row>
     <row r="316" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F316" s="26"/>
+      <c r="F316" s="24"/>
     </row>
     <row r="317" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F317" s="26"/>
+      <c r="F317" s="24"/>
     </row>
     <row r="318" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F318" s="26"/>
+      <c r="F318" s="24"/>
     </row>
     <row r="319" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F319" s="26"/>
+      <c r="F319" s="24"/>
     </row>
     <row r="320" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F320" s="26"/>
+      <c r="F320" s="24"/>
     </row>
     <row r="321" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F321" s="26"/>
+      <c r="F321" s="24"/>
     </row>
     <row r="322" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F322" s="26"/>
+      <c r="F322" s="24"/>
     </row>
     <row r="323" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F323" s="26"/>
+      <c r="F323" s="24"/>
     </row>
     <row r="324" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F324" s="26"/>
+      <c r="F324" s="24"/>
     </row>
     <row r="325" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F325" s="26"/>
+      <c r="F325" s="24"/>
     </row>
     <row r="326" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F326" s="26"/>
+      <c r="F326" s="24"/>
     </row>
     <row r="327" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F327" s="26"/>
+      <c r="F327" s="24"/>
     </row>
     <row r="328" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F328" s="26"/>
+      <c r="F328" s="24"/>
     </row>
     <row r="329" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F329" s="26"/>
+      <c r="F329" s="24"/>
     </row>
     <row r="330" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F330" s="26"/>
+      <c r="F330" s="24"/>
     </row>
     <row r="331" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F331" s="26"/>
+      <c r="F331" s="24"/>
     </row>
     <row r="332" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F332" s="26"/>
+      <c r="F332" s="24"/>
     </row>
     <row r="333" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F333" s="26"/>
+      <c r="F333" s="24"/>
     </row>
     <row r="334" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F334" s="26"/>
+      <c r="F334" s="24"/>
     </row>
     <row r="335" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F335" s="26"/>
+      <c r="F335" s="24"/>
     </row>
     <row r="336" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F336" s="26"/>
+      <c r="F336" s="24"/>
     </row>
     <row r="337" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F337" s="26"/>
+      <c r="F337" s="24"/>
     </row>
     <row r="338" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F338" s="26"/>
+      <c r="F338" s="24"/>
     </row>
     <row r="339" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F339" s="26"/>
+      <c r="F339" s="24"/>
     </row>
     <row r="340" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F340" s="26"/>
+      <c r="F340" s="24"/>
     </row>
     <row r="341" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F341" s="26"/>
+      <c r="F341" s="24"/>
     </row>
     <row r="342" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F342" s="26"/>
+      <c r="F342" s="24"/>
     </row>
     <row r="343" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F343" s="26"/>
+      <c r="F343" s="24"/>
     </row>
     <row r="344" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F344" s="26"/>
+      <c r="F344" s="24"/>
     </row>
     <row r="345" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F345" s="26"/>
+      <c r="F345" s="24"/>
     </row>
     <row r="346" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F346" s="26"/>
+      <c r="F346" s="24"/>
     </row>
     <row r="347" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F347" s="26"/>
+      <c r="F347" s="24"/>
     </row>
     <row r="348" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F348" s="26"/>
+      <c r="F348" s="24"/>
     </row>
     <row r="349" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F349" s="26"/>
+      <c r="F349" s="24"/>
     </row>
     <row r="350" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F350" s="26"/>
+      <c r="F350" s="24"/>
     </row>
     <row r="351" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F351" s="26"/>
+      <c r="F351" s="24"/>
     </row>
     <row r="352" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F352" s="26"/>
+      <c r="F352" s="24"/>
     </row>
     <row r="353" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F353" s="26"/>
+      <c r="F353" s="24"/>
     </row>
     <row r="354" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F354" s="26"/>
+      <c r="F354" s="24"/>
     </row>
     <row r="355" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F355" s="26"/>
+      <c r="F355" s="24"/>
     </row>
     <row r="356" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F356" s="26"/>
+      <c r="F356" s="24"/>
     </row>
     <row r="357" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F357" s="26"/>
+      <c r="F357" s="24"/>
     </row>
     <row r="358" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F358" s="26"/>
+      <c r="F358" s="24"/>
     </row>
     <row r="359" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F359" s="26"/>
+      <c r="F359" s="24"/>
     </row>
     <row r="360" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F360" s="26"/>
+      <c r="F360" s="24"/>
     </row>
     <row r="361" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F361" s="26"/>
+      <c r="F361" s="24"/>
     </row>
     <row r="362" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F362" s="26"/>
+      <c r="F362" s="24"/>
     </row>
     <row r="363" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F363" s="26"/>
+      <c r="F363" s="24"/>
     </row>
     <row r="364" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F364" s="26"/>
+      <c r="F364" s="24"/>
     </row>
     <row r="365" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F365" s="26"/>
+      <c r="F365" s="24"/>
     </row>
     <row r="366" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F366" s="26"/>
+      <c r="F366" s="24"/>
     </row>
     <row r="367" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F367" s="26"/>
+      <c r="F367" s="24"/>
     </row>
     <row r="368" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F368" s="26"/>
+      <c r="F368" s="24"/>
     </row>
     <row r="369" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F369" s="26"/>
+      <c r="F369" s="24"/>
     </row>
     <row r="370" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F370" s="26"/>
+      <c r="F370" s="24"/>
     </row>
     <row r="371" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F371" s="26"/>
+      <c r="F371" s="24"/>
     </row>
     <row r="372" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F372" s="26"/>
+      <c r="F372" s="24"/>
     </row>
     <row r="373" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F373" s="26"/>
+      <c r="F373" s="24"/>
     </row>
     <row r="374" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F374" s="26"/>
+      <c r="F374" s="24"/>
     </row>
     <row r="375" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F375" s="26"/>
+      <c r="F375" s="24"/>
     </row>
     <row r="376" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F376" s="26"/>
+      <c r="F376" s="24"/>
     </row>
     <row r="377" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F377" s="26"/>
+      <c r="F377" s="24"/>
     </row>
     <row r="378" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F378" s="26"/>
+      <c r="F378" s="24"/>
     </row>
     <row r="379" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F379" s="26"/>
+      <c r="F379" s="24"/>
     </row>
     <row r="380" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F380" s="26"/>
+      <c r="F380" s="24"/>
     </row>
     <row r="381" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F381" s="26"/>
+      <c r="F381" s="24"/>
     </row>
     <row r="382" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F382" s="26"/>
+      <c r="F382" s="24"/>
     </row>
     <row r="383" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F383" s="26"/>
+      <c r="F383" s="24"/>
     </row>
     <row r="384" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F384" s="26"/>
+      <c r="F384" s="24"/>
     </row>
     <row r="385" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F385" s="26"/>
+      <c r="F385" s="24"/>
     </row>
     <row r="386" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F386" s="26"/>
+      <c r="F386" s="24"/>
     </row>
     <row r="387" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F387" s="26"/>
+      <c r="F387" s="24"/>
     </row>
     <row r="388" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F388" s="26"/>
+      <c r="F388" s="24"/>
     </row>
     <row r="389" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F389" s="26"/>
+      <c r="F389" s="24"/>
     </row>
     <row r="390" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F390" s="26"/>
+      <c r="F390" s="24"/>
     </row>
     <row r="391" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F391" s="26"/>
+      <c r="F391" s="24"/>
     </row>
     <row r="392" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F392" s="26"/>
+      <c r="F392" s="24"/>
     </row>
     <row r="393" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F393" s="26"/>
+      <c r="F393" s="24"/>
     </row>
     <row r="394" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F394" s="26"/>
+      <c r="F394" s="24"/>
     </row>
     <row r="395" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F395" s="26"/>
+      <c r="F395" s="24"/>
     </row>
     <row r="396" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F396" s="26"/>
+      <c r="F396" s="24"/>
     </row>
     <row r="397" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F397" s="26"/>
+      <c r="F397" s="24"/>
     </row>
     <row r="398" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F398" s="26"/>
+      <c r="F398" s="24"/>
     </row>
     <row r="399" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F399" s="26"/>
+      <c r="F399" s="24"/>
     </row>
     <row r="400" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F400" s="26"/>
+      <c r="F400" s="24"/>
     </row>
     <row r="401" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F401" s="26"/>
+      <c r="F401" s="24"/>
     </row>
     <row r="402" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F402" s="26"/>
+      <c r="F402" s="24"/>
     </row>
     <row r="403" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F403" s="26"/>
+      <c r="F403" s="24"/>
     </row>
     <row r="404" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F404" s="26"/>
+      <c r="F404" s="24"/>
     </row>
     <row r="405" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F405" s="26"/>
+      <c r="F405" s="24"/>
     </row>
     <row r="406" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F406" s="26"/>
+      <c r="F406" s="24"/>
     </row>
     <row r="407" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F407" s="26"/>
+      <c r="F407" s="24"/>
     </row>
     <row r="408" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F408" s="26"/>
+      <c r="F408" s="24"/>
     </row>
     <row r="409" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F409" s="26"/>
+      <c r="F409" s="24"/>
     </row>
     <row r="410" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F410" s="26"/>
+      <c r="F410" s="24"/>
     </row>
     <row r="411" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F411" s="26"/>
+      <c r="F411" s="24"/>
     </row>
     <row r="412" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F412" s="26"/>
+      <c r="F412" s="24"/>
     </row>
     <row r="413" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F413" s="26"/>
+      <c r="F413" s="24"/>
     </row>
     <row r="414" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F414" s="26"/>
+      <c r="F414" s="24"/>
     </row>
     <row r="415" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F415" s="26"/>
+      <c r="F415" s="24"/>
     </row>
     <row r="416" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F416" s="26"/>
+      <c r="F416" s="24"/>
     </row>
     <row r="417" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F417" s="26"/>
+      <c r="F417" s="24"/>
     </row>
     <row r="418" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F418" s="26"/>
+      <c r="F418" s="24"/>
     </row>
     <row r="419" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F419" s="26"/>
+      <c r="F419" s="24"/>
     </row>
     <row r="420" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F420" s="26"/>
+      <c r="F420" s="24"/>
     </row>
     <row r="421" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F421" s="26"/>
+      <c r="F421" s="24"/>
     </row>
     <row r="422" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F422" s="26"/>
+      <c r="F422" s="24"/>
     </row>
     <row r="423" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F423" s="26"/>
+      <c r="F423" s="24"/>
     </row>
     <row r="424" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F424" s="26"/>
+      <c r="F424" s="24"/>
     </row>
     <row r="425" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F425" s="26"/>
+      <c r="F425" s="24"/>
     </row>
     <row r="426" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F426" s="26"/>
+      <c r="F426" s="24"/>
     </row>
     <row r="427" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F427" s="26"/>
+      <c r="F427" s="24"/>
     </row>
     <row r="428" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F428" s="26"/>
+      <c r="F428" s="24"/>
     </row>
     <row r="429" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F429" s="26"/>
+      <c r="F429" s="24"/>
     </row>
     <row r="430" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F430" s="26"/>
+      <c r="F430" s="24"/>
     </row>
     <row r="431" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F431" s="26"/>
+      <c r="F431" s="24"/>
     </row>
     <row r="432" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F432" s="26"/>
+      <c r="F432" s="24"/>
     </row>
     <row r="433" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F433" s="26"/>
+      <c r="F433" s="24"/>
     </row>
     <row r="434" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F434" s="26"/>
+      <c r="F434" s="24"/>
     </row>
     <row r="435" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F435" s="26"/>
+      <c r="F435" s="24"/>
     </row>
     <row r="436" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F436" s="26"/>
+      <c r="F436" s="24"/>
     </row>
     <row r="437" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F437" s="26"/>
+      <c r="F437" s="24"/>
     </row>
     <row r="438" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F438" s="26"/>
+      <c r="F438" s="24"/>
     </row>
     <row r="439" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F439" s="26"/>
+      <c r="F439" s="24"/>
     </row>
     <row r="440" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F440" s="26"/>
+      <c r="F440" s="24"/>
     </row>
     <row r="441" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F441" s="26"/>
+      <c r="F441" s="24"/>
     </row>
     <row r="442" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F442" s="26"/>
+      <c r="F442" s="24"/>
     </row>
     <row r="443" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F443" s="26"/>
+      <c r="F443" s="24"/>
     </row>
     <row r="444" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F444" s="26"/>
+      <c r="F444" s="24"/>
     </row>
     <row r="445" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F445" s="26"/>
+      <c r="F445" s="24"/>
     </row>
     <row r="446" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F446" s="26"/>
+      <c r="F446" s="24"/>
     </row>
     <row r="447" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F447" s="26"/>
+      <c r="F447" s="24"/>
     </row>
     <row r="448" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F448" s="26"/>
+      <c r="F448" s="24"/>
     </row>
     <row r="449" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F449" s="26"/>
+      <c r="F449" s="24"/>
     </row>
     <row r="450" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F450" s="26"/>
+      <c r="F450" s="24"/>
     </row>
     <row r="451" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F451" s="26"/>
+      <c r="F451" s="24"/>
     </row>
     <row r="452" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F452" s="26"/>
+      <c r="F452" s="24"/>
     </row>
     <row r="453" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F453" s="26"/>
+      <c r="F453" s="24"/>
     </row>
     <row r="454" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F454" s="26"/>
+      <c r="F454" s="24"/>
     </row>
     <row r="455" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F455" s="26"/>
+      <c r="F455" s="24"/>
     </row>
     <row r="456" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F456" s="26"/>
+      <c r="F456" s="24"/>
     </row>
     <row r="457" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F457" s="26"/>
+      <c r="F457" s="24"/>
     </row>
     <row r="458" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F458" s="26"/>
+      <c r="F458" s="24"/>
     </row>
     <row r="459" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F459" s="26"/>
+      <c r="F459" s="24"/>
     </row>
     <row r="460" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F460" s="26"/>
+      <c r="F460" s="24"/>
     </row>
     <row r="461" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F461" s="26"/>
+      <c r="F461" s="24"/>
     </row>
     <row r="462" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F462" s="26"/>
+      <c r="F462" s="24"/>
     </row>
     <row r="463" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F463" s="26"/>
+      <c r="F463" s="24"/>
     </row>
     <row r="464" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F464" s="26"/>
+      <c r="F464" s="24"/>
     </row>
     <row r="465" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F465" s="26"/>
+      <c r="F465" s="24"/>
     </row>
     <row r="466" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F466" s="26"/>
+      <c r="F466" s="24"/>
     </row>
     <row r="467" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F467" s="26"/>
+      <c r="F467" s="24"/>
     </row>
     <row r="468" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F468" s="26"/>
+      <c r="F468" s="24"/>
     </row>
     <row r="469" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F469" s="26"/>
+      <c r="F469" s="24"/>
     </row>
     <row r="470" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F470" s="26"/>
+      <c r="F470" s="24"/>
     </row>
     <row r="471" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F471" s="26"/>
+      <c r="F471" s="24"/>
     </row>
     <row r="472" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F472" s="26"/>
+      <c r="F472" s="24"/>
     </row>
     <row r="473" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F473" s="26"/>
+      <c r="F473" s="24"/>
     </row>
     <row r="474" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F474" s="26"/>
+      <c r="F474" s="24"/>
     </row>
     <row r="475" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F475" s="26"/>
+      <c r="F475" s="24"/>
     </row>
     <row r="476" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F476" s="26"/>
+      <c r="F476" s="24"/>
     </row>
     <row r="477" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F477" s="26"/>
+      <c r="F477" s="24"/>
     </row>
     <row r="478" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F478" s="26"/>
+      <c r="F478" s="24"/>
     </row>
     <row r="479" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F479" s="26"/>
+      <c r="F479" s="24"/>
     </row>
     <row r="480" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F480" s="26"/>
+      <c r="F480" s="24"/>
     </row>
     <row r="481" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F481" s="26"/>
+      <c r="F481" s="24"/>
     </row>
     <row r="482" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F482" s="26"/>
+      <c r="F482" s="24"/>
     </row>
     <row r="483" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F483" s="26"/>
+      <c r="F483" s="24"/>
     </row>
     <row r="484" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F484" s="26"/>
+      <c r="F484" s="24"/>
     </row>
     <row r="485" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F485" s="26"/>
+      <c r="F485" s="24"/>
     </row>
     <row r="486" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F486" s="26"/>
+      <c r="F486" s="24"/>
     </row>
     <row r="487" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F487" s="26"/>
+      <c r="F487" s="24"/>
     </row>
     <row r="488" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F488" s="26"/>
+      <c r="F488" s="24"/>
     </row>
     <row r="489" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F489" s="26"/>
+      <c r="F489" s="24"/>
     </row>
     <row r="490" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F490" s="26"/>
+      <c r="F490" s="24"/>
     </row>
     <row r="491" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F491" s="26"/>
+      <c r="F491" s="24"/>
     </row>
     <row r="492" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F492" s="26"/>
+      <c r="F492" s="24"/>
     </row>
     <row r="493" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F493" s="26"/>
+      <c r="F493" s="24"/>
     </row>
     <row r="494" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F494" s="26"/>
+      <c r="F494" s="24"/>
     </row>
     <row r="495" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F495" s="26"/>
+      <c r="F495" s="24"/>
     </row>
     <row r="496" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F496" s="26"/>
+      <c r="F496" s="24"/>
     </row>
     <row r="497" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F497" s="26"/>
+      <c r="F497" s="24"/>
     </row>
     <row r="498" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F498" s="26"/>
+      <c r="F498" s="24"/>
     </row>
     <row r="499" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F499" s="26"/>
+      <c r="F499" s="24"/>
     </row>
     <row r="500" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F500" s="26"/>
+      <c r="F500" s="24"/>
     </row>
     <row r="501" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F501" s="26"/>
+      <c r="F501" s="24"/>
     </row>
     <row r="502" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F502" s="26"/>
+      <c r="F502" s="24"/>
     </row>
     <row r="503" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F503" s="26"/>
+      <c r="F503" s="24"/>
     </row>
     <row r="504" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F504" s="26"/>
+      <c r="F504" s="24"/>
     </row>
     <row r="505" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F505" s="26"/>
+      <c r="F505" s="24"/>
     </row>
     <row r="506" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F506" s="26"/>
+      <c r="F506" s="24"/>
     </row>
     <row r="507" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F507" s="26"/>
+      <c r="F507" s="24"/>
     </row>
     <row r="508" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F508" s="26"/>
+      <c r="F508" s="24"/>
     </row>
     <row r="509" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F509" s="26"/>
+      <c r="F509" s="24"/>
     </row>
     <row r="510" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F510" s="26"/>
+      <c r="F510" s="24"/>
     </row>
     <row r="511" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F511" s="26"/>
+      <c r="F511" s="24"/>
     </row>
     <row r="512" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F512" s="26"/>
+      <c r="F512" s="24"/>
     </row>
     <row r="513" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F513" s="26"/>
+      <c r="F513" s="24"/>
     </row>
     <row r="514" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F514" s="26"/>
+      <c r="F514" s="24"/>
     </row>
     <row r="515" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F515" s="26"/>
+      <c r="F515" s="24"/>
     </row>
     <row r="516" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F516" s="26"/>
+      <c r="F516" s="24"/>
     </row>
     <row r="517" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F517" s="26"/>
+      <c r="F517" s="24"/>
     </row>
     <row r="518" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F518" s="26"/>
+      <c r="F518" s="24"/>
     </row>
     <row r="519" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F519" s="26"/>
+      <c r="F519" s="24"/>
     </row>
     <row r="520" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F520" s="26"/>
+      <c r="F520" s="24"/>
     </row>
     <row r="521" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F521" s="26"/>
+      <c r="F521" s="24"/>
     </row>
     <row r="522" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F522" s="26"/>
+      <c r="F522" s="24"/>
     </row>
     <row r="523" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F523" s="26"/>
+      <c r="F523" s="24"/>
     </row>
     <row r="524" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F524" s="26"/>
+      <c r="F524" s="24"/>
     </row>
     <row r="525" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F525" s="26"/>
+      <c r="F525" s="24"/>
     </row>
     <row r="526" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F526" s="26"/>
+      <c r="F526" s="24"/>
     </row>
     <row r="527" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F527" s="26"/>
+      <c r="F527" s="24"/>
     </row>
     <row r="528" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F528" s="26"/>
+      <c r="F528" s="24"/>
     </row>
     <row r="529" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F529" s="26"/>
+      <c r="F529" s="24"/>
     </row>
     <row r="530" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F530" s="26"/>
+      <c r="F530" s="24"/>
     </row>
     <row r="531" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F531" s="26"/>
+      <c r="F531" s="24"/>
     </row>
     <row r="532" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F532" s="26"/>
+      <c r="F532" s="24"/>
     </row>
     <row r="533" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F533" s="26"/>
+      <c r="F533" s="24"/>
     </row>
     <row r="534" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F534" s="26"/>
+      <c r="F534" s="24"/>
     </row>
     <row r="535" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F535" s="26"/>
+      <c r="F535" s="24"/>
     </row>
     <row r="536" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F536" s="26"/>
+      <c r="F536" s="24"/>
     </row>
     <row r="537" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F537" s="26"/>
+      <c r="F537" s="24"/>
     </row>
     <row r="538" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F538" s="26"/>
+      <c r="F538" s="24"/>
     </row>
     <row r="539" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F539" s="26"/>
+      <c r="F539" s="24"/>
     </row>
     <row r="540" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F540" s="26"/>
+      <c r="F540" s="24"/>
     </row>
     <row r="541" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F541" s="26"/>
+      <c r="F541" s="24"/>
     </row>
     <row r="542" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F542" s="26"/>
+      <c r="F542" s="24"/>
     </row>
     <row r="543" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F543" s="26"/>
+      <c r="F543" s="24"/>
     </row>
     <row r="544" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F544" s="26"/>
+      <c r="F544" s="24"/>
     </row>
     <row r="545" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F545" s="26"/>
+      <c r="F545" s="24"/>
     </row>
     <row r="546" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F546" s="26"/>
+      <c r="F546" s="24"/>
     </row>
     <row r="547" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F547" s="26"/>
+      <c r="F547" s="24"/>
     </row>
     <row r="548" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F548" s="26"/>
+      <c r="F548" s="24"/>
     </row>
     <row r="549" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F549" s="26"/>
+      <c r="F549" s="24"/>
     </row>
     <row r="550" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F550" s="26"/>
+      <c r="F550" s="24"/>
     </row>
     <row r="551" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F551" s="26"/>
+      <c r="F551" s="24"/>
     </row>
     <row r="552" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F552" s="26"/>
+      <c r="F552" s="24"/>
     </row>
     <row r="553" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F553" s="26"/>
+      <c r="F553" s="24"/>
     </row>
     <row r="554" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F554" s="26"/>
+      <c r="F554" s="24"/>
     </row>
     <row r="555" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F555" s="26"/>
+      <c r="F555" s="24"/>
     </row>
     <row r="556" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F556" s="26"/>
+      <c r="F556" s="24"/>
     </row>
     <row r="557" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F557" s="26"/>
+      <c r="F557" s="24"/>
     </row>
     <row r="558" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F558" s="26"/>
+      <c r="F558" s="24"/>
     </row>
     <row r="559" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F559" s="26"/>
+      <c r="F559" s="24"/>
     </row>
     <row r="560" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F560" s="26"/>
+      <c r="F560" s="24"/>
     </row>
     <row r="561" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F561" s="26"/>
+      <c r="F561" s="24"/>
     </row>
     <row r="562" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F562" s="26"/>
+      <c r="F562" s="24"/>
     </row>
     <row r="563" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F563" s="26"/>
+      <c r="F563" s="24"/>
     </row>
     <row r="564" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F564" s="26"/>
+      <c r="F564" s="24"/>
     </row>
     <row r="565" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F565" s="26"/>
+      <c r="F565" s="24"/>
     </row>
     <row r="566" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F566" s="26"/>
+      <c r="F566" s="24"/>
     </row>
     <row r="567" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F567" s="26"/>
+      <c r="F567" s="24"/>
     </row>
     <row r="568" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F568" s="26"/>
+      <c r="F568" s="24"/>
     </row>
     <row r="569" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F569" s="26"/>
+      <c r="F569" s="24"/>
     </row>
     <row r="570" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F570" s="26"/>
+      <c r="F570" s="24"/>
     </row>
     <row r="571" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F571" s="26"/>
+      <c r="F571" s="24"/>
     </row>
     <row r="572" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F572" s="26"/>
+      <c r="F572" s="24"/>
     </row>
     <row r="573" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F573" s="26"/>
+      <c r="F573" s="24"/>
     </row>
     <row r="574" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F574" s="26"/>
+      <c r="F574" s="24"/>
     </row>
     <row r="575" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F575" s="26"/>
+      <c r="F575" s="24"/>
     </row>
     <row r="576" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F576" s="26"/>
+      <c r="F576" s="24"/>
     </row>
     <row r="577" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F577" s="26"/>
+      <c r="F577" s="24"/>
     </row>
     <row r="578" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F578" s="26"/>
+      <c r="F578" s="24"/>
     </row>
     <row r="579" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F579" s="26"/>
+      <c r="F579" s="24"/>
     </row>
     <row r="580" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F580" s="26"/>
+      <c r="F580" s="24"/>
     </row>
     <row r="581" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F581" s="26"/>
+      <c r="F581" s="24"/>
     </row>
     <row r="582" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F582" s="26"/>
+      <c r="F582" s="24"/>
     </row>
     <row r="583" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F583" s="26"/>
+      <c r="F583" s="24"/>
     </row>
     <row r="584" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F584" s="26"/>
+      <c r="F584" s="24"/>
     </row>
     <row r="585" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F585" s="26"/>
+      <c r="F585" s="24"/>
     </row>
     <row r="586" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F586" s="26"/>
+      <c r="F586" s="24"/>
     </row>
     <row r="587" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F587" s="26"/>
+      <c r="F587" s="24"/>
     </row>
     <row r="588" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F588" s="26"/>
+      <c r="F588" s="24"/>
     </row>
     <row r="589" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F589" s="26"/>
+      <c r="F589" s="24"/>
     </row>
     <row r="590" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F590" s="26"/>
+      <c r="F590" s="24"/>
     </row>
     <row r="591" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F591" s="26"/>
+      <c r="F591" s="24"/>
     </row>
     <row r="592" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F592" s="26"/>
+      <c r="F592" s="24"/>
     </row>
     <row r="593" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F593" s="26"/>
+      <c r="F593" s="24"/>
     </row>
     <row r="594" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F594" s="26"/>
+      <c r="F594" s="24"/>
     </row>
     <row r="595" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F595" s="26"/>
+      <c r="F595" s="24"/>
     </row>
     <row r="596" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F596" s="26"/>
+      <c r="F596" s="24"/>
     </row>
     <row r="597" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F597" s="26"/>
+      <c r="F597" s="24"/>
     </row>
     <row r="598" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F598" s="26"/>
+      <c r="F598" s="24"/>
     </row>
     <row r="599" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F599" s="26"/>
+      <c r="F599" s="24"/>
     </row>
     <row r="600" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F600" s="26"/>
+      <c r="F600" s="24"/>
     </row>
     <row r="601" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F601" s="26"/>
+      <c r="F601" s="24"/>
     </row>
     <row r="602" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F602" s="26"/>
+      <c r="F602" s="24"/>
     </row>
     <row r="603" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F603" s="26"/>
+      <c r="F603" s="24"/>
     </row>
     <row r="604" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F604" s="26"/>
+      <c r="F604" s="24"/>
     </row>
     <row r="605" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F605" s="26"/>
+      <c r="F605" s="24"/>
     </row>
     <row r="606" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F606" s="26"/>
+      <c r="F606" s="24"/>
     </row>
     <row r="607" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F607" s="26"/>
+      <c r="F607" s="24"/>
     </row>
     <row r="608" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F608" s="26"/>
+      <c r="F608" s="24"/>
     </row>
     <row r="609" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F609" s="26"/>
+      <c r="F609" s="24"/>
     </row>
     <row r="610" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F610" s="26"/>
+      <c r="F610" s="24"/>
     </row>
     <row r="611" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F611" s="26"/>
+      <c r="F611" s="24"/>
     </row>
     <row r="612" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F612" s="26"/>
+      <c r="F612" s="24"/>
     </row>
     <row r="613" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F613" s="26"/>
+      <c r="F613" s="24"/>
     </row>
     <row r="614" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F614" s="26"/>
+      <c r="F614" s="24"/>
     </row>
     <row r="615" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F615" s="26"/>
+      <c r="F615" s="24"/>
     </row>
     <row r="616" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F616" s="26"/>
+      <c r="F616" s="24"/>
     </row>
     <row r="617" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F617" s="26"/>
+      <c r="F617" s="24"/>
     </row>
     <row r="618" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F618" s="26"/>
+      <c r="F618" s="24"/>
     </row>
     <row r="619" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F619" s="26"/>
+      <c r="F619" s="24"/>
     </row>
     <row r="620" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F620" s="26"/>
+      <c r="F620" s="24"/>
     </row>
     <row r="621" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F621" s="26"/>
+      <c r="F621" s="24"/>
     </row>
     <row r="622" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F622" s="26"/>
+      <c r="F622" s="24"/>
     </row>
     <row r="623" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F623" s="26"/>
+      <c r="F623" s="24"/>
     </row>
     <row r="624" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F624" s="26"/>
+      <c r="F624" s="24"/>
     </row>
     <row r="625" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F625" s="26"/>
+      <c r="F625" s="24"/>
     </row>
     <row r="626" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F626" s="26"/>
+      <c r="F626" s="24"/>
     </row>
     <row r="627" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F627" s="26"/>
+      <c r="F627" s="24"/>
     </row>
     <row r="628" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F628" s="26"/>
+      <c r="F628" s="24"/>
     </row>
     <row r="629" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F629" s="26"/>
+      <c r="F629" s="24"/>
     </row>
     <row r="630" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F630" s="26"/>
+      <c r="F630" s="24"/>
     </row>
     <row r="631" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F631" s="26"/>
+      <c r="F631" s="24"/>
     </row>
     <row r="632" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F632" s="26"/>
+      <c r="F632" s="24"/>
     </row>
     <row r="633" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F633" s="26"/>
+      <c r="F633" s="24"/>
     </row>
     <row r="634" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F634" s="26"/>
+      <c r="F634" s="24"/>
     </row>
     <row r="635" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F635" s="26"/>
+      <c r="F635" s="24"/>
     </row>
     <row r="636" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F636" s="26"/>
+      <c r="F636" s="24"/>
     </row>
     <row r="637" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F637" s="26"/>
+      <c r="F637" s="24"/>
     </row>
     <row r="638" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F638" s="26"/>
+      <c r="F638" s="24"/>
     </row>
     <row r="639" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F639" s="26"/>
+      <c r="F639" s="24"/>
     </row>
     <row r="640" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F640" s="26"/>
+      <c r="F640" s="24"/>
     </row>
     <row r="641" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F641" s="26"/>
+      <c r="F641" s="24"/>
     </row>
     <row r="642" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F642" s="26"/>
+      <c r="F642" s="24"/>
     </row>
     <row r="643" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F643" s="26"/>
+      <c r="F643" s="24"/>
     </row>
     <row r="644" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F644" s="26"/>
+      <c r="F644" s="24"/>
     </row>
     <row r="645" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F645" s="26"/>
+      <c r="F645" s="24"/>
     </row>
     <row r="646" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F646" s="26"/>
+      <c r="F646" s="24"/>
     </row>
     <row r="647" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F647" s="26"/>
+      <c r="F647" s="24"/>
     </row>
     <row r="648" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F648" s="26"/>
+      <c r="F648" s="24"/>
     </row>
     <row r="649" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F649" s="26"/>
+      <c r="F649" s="24"/>
     </row>
     <row r="650" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F650" s="26"/>
+      <c r="F650" s="24"/>
     </row>
     <row r="651" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F651" s="26"/>
+      <c r="F651" s="24"/>
     </row>
     <row r="652" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F652" s="26"/>
+      <c r="F652" s="24"/>
     </row>
     <row r="653" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F653" s="26"/>
+      <c r="F653" s="24"/>
     </row>
     <row r="654" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F654" s="26"/>
+      <c r="F654" s="24"/>
     </row>
     <row r="655" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F655" s="26"/>
+      <c r="F655" s="24"/>
     </row>
     <row r="656" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F656" s="26"/>
+      <c r="F656" s="24"/>
     </row>
     <row r="657" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F657" s="26"/>
+      <c r="F657" s="24"/>
     </row>
     <row r="658" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F658" s="26"/>
+      <c r="F658" s="24"/>
     </row>
     <row r="659" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F659" s="26"/>
+      <c r="F659" s="24"/>
     </row>
     <row r="660" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F660" s="26"/>
+      <c r="F660" s="24"/>
     </row>
     <row r="661" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F661" s="26"/>
+      <c r="F661" s="24"/>
     </row>
     <row r="662" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F662" s="26"/>
+      <c r="F662" s="24"/>
     </row>
     <row r="663" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F663" s="26"/>
+      <c r="F663" s="24"/>
     </row>
     <row r="664" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F664" s="26"/>
+      <c r="F664" s="24"/>
     </row>
     <row r="665" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F665" s="26"/>
+      <c r="F665" s="24"/>
     </row>
     <row r="666" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F666" s="26"/>
+      <c r="F666" s="24"/>
     </row>
     <row r="667" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F667" s="26"/>
+      <c r="F667" s="24"/>
     </row>
     <row r="668" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F668" s="26"/>
+      <c r="F668" s="24"/>
     </row>
     <row r="669" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F669" s="26"/>
+      <c r="F669" s="24"/>
     </row>
     <row r="670" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F670" s="26"/>
+      <c r="F670" s="24"/>
     </row>
     <row r="671" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F671" s="26"/>
+      <c r="F671" s="24"/>
     </row>
     <row r="672" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F672" s="26"/>
+      <c r="F672" s="24"/>
     </row>
     <row r="673" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F673" s="26"/>
+      <c r="F673" s="24"/>
     </row>
     <row r="674" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F674" s="26"/>
+      <c r="F674" s="24"/>
     </row>
     <row r="675" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F675" s="26"/>
+      <c r="F675" s="24"/>
     </row>
     <row r="676" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F676" s="26"/>
+      <c r="F676" s="24"/>
     </row>
     <row r="677" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F677" s="26"/>
+      <c r="F677" s="24"/>
     </row>
     <row r="678" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F678" s="26"/>
+      <c r="F678" s="24"/>
     </row>
     <row r="679" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F679" s="26"/>
+      <c r="F679" s="24"/>
     </row>
     <row r="680" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F680" s="26"/>
+      <c r="F680" s="24"/>
     </row>
     <row r="681" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F681" s="26"/>
+      <c r="F681" s="24"/>
     </row>
     <row r="682" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F682" s="26"/>
+      <c r="F682" s="24"/>
     </row>
     <row r="683" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F683" s="26"/>
+      <c r="F683" s="24"/>
     </row>
     <row r="684" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F684" s="26"/>
+      <c r="F684" s="24"/>
     </row>
     <row r="685" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F685" s="26"/>
+      <c r="F685" s="24"/>
     </row>
     <row r="686" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F686" s="26"/>
+      <c r="F686" s="24"/>
     </row>
     <row r="687" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F687" s="26"/>
+      <c r="F687" s="24"/>
     </row>
     <row r="688" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F688" s="26"/>
+      <c r="F688" s="24"/>
     </row>
     <row r="689" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F689" s="26"/>
+      <c r="F689" s="24"/>
     </row>
     <row r="690" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F690" s="26"/>
+      <c r="F690" s="24"/>
     </row>
     <row r="691" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F691" s="26"/>
+      <c r="F691" s="24"/>
     </row>
     <row r="692" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F692" s="26"/>
+      <c r="F692" s="24"/>
     </row>
     <row r="693" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F693" s="26"/>
+      <c r="F693" s="24"/>
     </row>
     <row r="694" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F694" s="26"/>
+      <c r="F694" s="24"/>
     </row>
     <row r="695" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F695" s="26"/>
+      <c r="F695" s="24"/>
     </row>
     <row r="696" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F696" s="26"/>
+      <c r="F696" s="24"/>
     </row>
     <row r="697" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F697" s="26"/>
+      <c r="F697" s="24"/>
     </row>
     <row r="698" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F698" s="26"/>
+      <c r="F698" s="24"/>
     </row>
     <row r="699" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F699" s="26"/>
+      <c r="F699" s="24"/>
     </row>
     <row r="700" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F700" s="26"/>
+      <c r="F700" s="24"/>
     </row>
     <row r="701" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F701" s="26"/>
+      <c r="F701" s="24"/>
     </row>
     <row r="702" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F702" s="26"/>
+      <c r="F702" s="24"/>
     </row>
     <row r="703" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F703" s="26"/>
+      <c r="F703" s="24"/>
     </row>
     <row r="704" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F704" s="26"/>
+      <c r="F704" s="24"/>
     </row>
     <row r="705" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F705" s="26"/>
+      <c r="F705" s="24"/>
     </row>
     <row r="706" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F706" s="26"/>
+      <c r="F706" s="24"/>
     </row>
     <row r="707" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F707" s="26"/>
+      <c r="F707" s="24"/>
     </row>
     <row r="708" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F708" s="26"/>
+      <c r="F708" s="24"/>
     </row>
     <row r="709" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F709" s="26"/>
+      <c r="F709" s="24"/>
     </row>
     <row r="710" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F710" s="26"/>
+      <c r="F710" s="24"/>
     </row>
     <row r="711" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F711" s="26"/>
+      <c r="F711" s="24"/>
     </row>
     <row r="712" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F712" s="26"/>
+      <c r="F712" s="24"/>
     </row>
     <row r="713" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F713" s="26"/>
+      <c r="F713" s="24"/>
     </row>
     <row r="714" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F714" s="26"/>
+      <c r="F714" s="24"/>
     </row>
     <row r="715" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F715" s="26"/>
+      <c r="F715" s="24"/>
     </row>
     <row r="716" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F716" s="26"/>
+      <c r="F716" s="24"/>
     </row>
     <row r="717" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F717" s="26"/>
+      <c r="F717" s="24"/>
     </row>
     <row r="718" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F718" s="26"/>
+      <c r="F718" s="24"/>
     </row>
     <row r="719" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F719" s="26"/>
+      <c r="F719" s="24"/>
     </row>
     <row r="720" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F720" s="26"/>
+      <c r="F720" s="24"/>
     </row>
     <row r="721" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F721" s="26"/>
+      <c r="F721" s="24"/>
     </row>
     <row r="722" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F722" s="26"/>
+      <c r="F722" s="24"/>
     </row>
     <row r="723" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F723" s="26"/>
+      <c r="F723" s="24"/>
     </row>
     <row r="724" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F724" s="26"/>
+      <c r="F724" s="24"/>
     </row>
     <row r="725" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F725" s="26"/>
+      <c r="F725" s="24"/>
     </row>
     <row r="726" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F726" s="26"/>
+      <c r="F726" s="24"/>
     </row>
     <row r="727" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F727" s="26"/>
+      <c r="F727" s="24"/>
     </row>
     <row r="728" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F728" s="26"/>
+      <c r="F728" s="24"/>
     </row>
     <row r="729" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F729" s="26"/>
+      <c r="F729" s="24"/>
     </row>
     <row r="730" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F730" s="26"/>
+      <c r="F730" s="24"/>
     </row>
     <row r="731" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F731" s="26"/>
+      <c r="F731" s="24"/>
     </row>
     <row r="732" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F732" s="26"/>
+      <c r="F732" s="24"/>
     </row>
     <row r="733" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F733" s="26"/>
+      <c r="F733" s="24"/>
     </row>
     <row r="734" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F734" s="26"/>
+      <c r="F734" s="24"/>
     </row>
     <row r="735" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F735" s="26"/>
+      <c r="F735" s="24"/>
     </row>
     <row r="736" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F736" s="26"/>
+      <c r="F736" s="24"/>
     </row>
     <row r="737" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F737" s="26"/>
+      <c r="F737" s="24"/>
     </row>
     <row r="738" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F738" s="26"/>
+      <c r="F738" s="24"/>
     </row>
     <row r="739" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F739" s="26"/>
+      <c r="F739" s="24"/>
     </row>
     <row r="740" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F740" s="26"/>
+      <c r="F740" s="24"/>
     </row>
     <row r="741" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F741" s="26"/>
+      <c r="F741" s="24"/>
     </row>
     <row r="742" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F742" s="26"/>
+      <c r="F742" s="24"/>
     </row>
     <row r="743" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F743" s="26"/>
+      <c r="F743" s="24"/>
     </row>
     <row r="744" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F744" s="26"/>
+      <c r="F744" s="24"/>
     </row>
     <row r="745" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F745" s="26"/>
+      <c r="F745" s="24"/>
     </row>
     <row r="746" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F746" s="26"/>
+      <c r="F746" s="24"/>
     </row>
     <row r="747" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F747" s="26"/>
+      <c r="F747" s="24"/>
     </row>
     <row r="748" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F748" s="26"/>
+      <c r="F748" s="24"/>
     </row>
     <row r="749" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F749" s="26"/>
+      <c r="F749" s="24"/>
     </row>
     <row r="750" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F750" s="26"/>
+      <c r="F750" s="24"/>
     </row>
     <row r="751" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F751" s="26"/>
+      <c r="F751" s="24"/>
     </row>
     <row r="752" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F752" s="26"/>
+      <c r="F752" s="24"/>
     </row>
     <row r="753" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F753" s="26"/>
+      <c r="F753" s="24"/>
     </row>
     <row r="754" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F754" s="26"/>
+      <c r="F754" s="24"/>
     </row>
     <row r="755" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F755" s="26"/>
+      <c r="F755" s="24"/>
     </row>
     <row r="756" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F756" s="26"/>
+      <c r="F756" s="24"/>
     </row>
     <row r="757" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F757" s="26"/>
+      <c r="F757" s="24"/>
     </row>
     <row r="758" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F758" s="26"/>
+      <c r="F758" s="24"/>
     </row>
     <row r="759" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F759" s="26"/>
+      <c r="F759" s="24"/>
     </row>
     <row r="760" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F760" s="26"/>
+      <c r="F760" s="24"/>
     </row>
     <row r="761" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F761" s="26"/>
+      <c r="F761" s="24"/>
     </row>
     <row r="762" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F762" s="26"/>
+      <c r="F762" s="24"/>
     </row>
     <row r="763" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F763" s="26"/>
+      <c r="F763" s="24"/>
     </row>
     <row r="764" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F764" s="26"/>
+      <c r="F764" s="24"/>
     </row>
     <row r="765" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F765" s="26"/>
+      <c r="F765" s="24"/>
     </row>
     <row r="766" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F766" s="26"/>
+      <c r="F766" s="24"/>
     </row>
     <row r="767" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F767" s="26"/>
+      <c r="F767" s="24"/>
     </row>
     <row r="768" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F768" s="26"/>
+      <c r="F768" s="24"/>
     </row>
     <row r="769" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F769" s="26"/>
+      <c r="F769" s="24"/>
     </row>
     <row r="770" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F770" s="26"/>
+      <c r="F770" s="24"/>
     </row>
     <row r="771" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F771" s="26"/>
+      <c r="F771" s="24"/>
     </row>
     <row r="772" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F772" s="26"/>
+      <c r="F772" s="24"/>
     </row>
     <row r="773" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F773" s="26"/>
+      <c r="F773" s="24"/>
     </row>
     <row r="774" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F774" s="26"/>
+      <c r="F774" s="24"/>
     </row>
     <row r="775" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F775" s="26"/>
+      <c r="F775" s="24"/>
     </row>
     <row r="776" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F776" s="26"/>
+      <c r="F776" s="24"/>
     </row>
     <row r="777" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F777" s="26"/>
+      <c r="F777" s="24"/>
     </row>
     <row r="778" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F778" s="26"/>
+      <c r="F778" s="24"/>
     </row>
     <row r="779" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F779" s="26"/>
+      <c r="F779" s="24"/>
     </row>
     <row r="780" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F780" s="26"/>
+      <c r="F780" s="24"/>
     </row>
     <row r="781" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F781" s="26"/>
+      <c r="F781" s="24"/>
     </row>
     <row r="782" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F782" s="26"/>
+      <c r="F782" s="24"/>
     </row>
     <row r="783" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F783" s="26"/>
+      <c r="F783" s="24"/>
     </row>
     <row r="784" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F784" s="26"/>
+      <c r="F784" s="24"/>
     </row>
     <row r="785" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F785" s="26"/>
+      <c r="F785" s="24"/>
     </row>
     <row r="786" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F786" s="26"/>
+      <c r="F786" s="24"/>
     </row>
     <row r="787" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F787" s="26"/>
+      <c r="F787" s="24"/>
     </row>
     <row r="788" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F788" s="26"/>
+      <c r="F788" s="24"/>
     </row>
     <row r="789" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F789" s="26"/>
+      <c r="F789" s="24"/>
     </row>
     <row r="790" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F790" s="26"/>
+      <c r="F790" s="24"/>
     </row>
     <row r="791" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F791" s="26"/>
+      <c r="F791" s="24"/>
     </row>
     <row r="792" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F792" s="26"/>
+      <c r="F792" s="24"/>
     </row>
     <row r="793" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F793" s="26"/>
+      <c r="F793" s="24"/>
     </row>
     <row r="794" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F794" s="26"/>
+      <c r="F794" s="24"/>
     </row>
     <row r="795" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F795" s="26"/>
+      <c r="F795" s="24"/>
     </row>
     <row r="796" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F796" s="26"/>
+      <c r="F796" s="24"/>
     </row>
     <row r="797" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F797" s="26"/>
+      <c r="F797" s="24"/>
     </row>
     <row r="798" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F798" s="26"/>
+      <c r="F798" s="24"/>
     </row>
     <row r="799" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F799" s="26"/>
+      <c r="F799" s="24"/>
     </row>
     <row r="800" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F800" s="26"/>
+      <c r="F800" s="24"/>
     </row>
     <row r="801" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F801" s="26"/>
+      <c r="F801" s="24"/>
     </row>
     <row r="802" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F802" s="26"/>
+      <c r="F802" s="24"/>
     </row>
     <row r="803" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F803" s="26"/>
+      <c r="F803" s="24"/>
     </row>
     <row r="804" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F804" s="26"/>
+      <c r="F804" s="24"/>
     </row>
     <row r="805" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F805" s="26"/>
+      <c r="F805" s="24"/>
     </row>
     <row r="806" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F806" s="26"/>
+      <c r="F806" s="24"/>
     </row>
     <row r="807" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F807" s="26"/>
+      <c r="F807" s="24"/>
     </row>
     <row r="808" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F808" s="26"/>
+      <c r="F808" s="24"/>
     </row>
     <row r="809" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F809" s="26"/>
+      <c r="F809" s="24"/>
     </row>
     <row r="810" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F810" s="26"/>
+      <c r="F810" s="24"/>
     </row>
     <row r="811" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F811" s="26"/>
+      <c r="F811" s="24"/>
     </row>
     <row r="812" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F812" s="26"/>
+      <c r="F812" s="24"/>
     </row>
     <row r="813" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F813" s="26"/>
+      <c r="F813" s="24"/>
     </row>
     <row r="814" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F814" s="26"/>
+      <c r="F814" s="24"/>
     </row>
     <row r="815" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F815" s="26"/>
+      <c r="F815" s="24"/>
     </row>
     <row r="816" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F816" s="26"/>
+      <c r="F816" s="24"/>
     </row>
     <row r="817" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F817" s="26"/>
+      <c r="F817" s="24"/>
     </row>
     <row r="818" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F818" s="26"/>
+      <c r="F818" s="24"/>
     </row>
     <row r="819" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F819" s="26"/>
+      <c r="F819" s="24"/>
     </row>
     <row r="820" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F820" s="26"/>
+      <c r="F820" s="24"/>
     </row>
     <row r="821" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F821" s="26"/>
+      <c r="F821" s="24"/>
     </row>
     <row r="822" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F822" s="26"/>
+      <c r="F822" s="24"/>
     </row>
     <row r="823" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F823" s="26"/>
+      <c r="F823" s="24"/>
     </row>
     <row r="824" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F824" s="26"/>
+      <c r="F824" s="24"/>
     </row>
     <row r="825" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F825" s="26"/>
+      <c r="F825" s="24"/>
     </row>
     <row r="826" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F826" s="26"/>
+      <c r="F826" s="24"/>
     </row>
     <row r="827" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F827" s="26"/>
+      <c r="F827" s="24"/>
     </row>
     <row r="828" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F828" s="26"/>
+      <c r="F828" s="24"/>
     </row>
     <row r="829" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F829" s="26"/>
+      <c r="F829" s="24"/>
     </row>
     <row r="830" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F830" s="26"/>
+      <c r="F830" s="24"/>
     </row>
     <row r="831" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F831" s="26"/>
+      <c r="F831" s="24"/>
     </row>
     <row r="832" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F832" s="26"/>
+      <c r="F832" s="24"/>
     </row>
     <row r="833" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F833" s="26"/>
+      <c r="F833" s="24"/>
     </row>
     <row r="834" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F834" s="26"/>
+      <c r="F834" s="24"/>
     </row>
     <row r="835" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F835" s="26"/>
+      <c r="F835" s="24"/>
     </row>
     <row r="836" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F836" s="26"/>
+      <c r="F836" s="24"/>
     </row>
     <row r="837" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F837" s="26"/>
+      <c r="F837" s="24"/>
     </row>
     <row r="838" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F838" s="26"/>
+      <c r="F838" s="24"/>
     </row>
     <row r="839" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F839" s="26"/>
+      <c r="F839" s="24"/>
     </row>
     <row r="840" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F840" s="26"/>
+      <c r="F840" s="24"/>
     </row>
     <row r="841" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F841" s="26"/>
+      <c r="F841" s="24"/>
     </row>
     <row r="842" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F842" s="26"/>
+      <c r="F842" s="24"/>
     </row>
     <row r="843" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F843" s="26"/>
+      <c r="F843" s="24"/>
     </row>
     <row r="844" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F844" s="26"/>
+      <c r="F844" s="24"/>
     </row>
     <row r="845" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F845" s="26"/>
+      <c r="F845" s="24"/>
     </row>
     <row r="846" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F846" s="26"/>
+      <c r="F846" s="24"/>
     </row>
     <row r="847" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F847" s="26"/>
+      <c r="F847" s="24"/>
     </row>
     <row r="848" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F848" s="26"/>
+      <c r="F848" s="24"/>
     </row>
     <row r="849" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F849" s="26"/>
+      <c r="F849" s="24"/>
     </row>
     <row r="850" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F850" s="26"/>
+      <c r="F850" s="24"/>
     </row>
     <row r="851" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F851" s="26"/>
+      <c r="F851" s="24"/>
     </row>
     <row r="852" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F852" s="26"/>
+      <c r="F852" s="24"/>
     </row>
     <row r="853" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F853" s="26"/>
+      <c r="F853" s="24"/>
     </row>
     <row r="854" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F854" s="26"/>
+      <c r="F854" s="24"/>
     </row>
     <row r="855" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F855" s="26"/>
+      <c r="F855" s="24"/>
     </row>
     <row r="856" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F856" s="26"/>
+      <c r="F856" s="24"/>
     </row>
     <row r="857" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F857" s="26"/>
+      <c r="F857" s="24"/>
     </row>
     <row r="858" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F858" s="26"/>
+      <c r="F858" s="24"/>
     </row>
     <row r="859" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F859" s="26"/>
+      <c r="F859" s="24"/>
     </row>
     <row r="860" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F860" s="26"/>
+      <c r="F860" s="24"/>
     </row>
     <row r="861" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F861" s="26"/>
+      <c r="F861" s="24"/>
     </row>
     <row r="862" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F862" s="26"/>
+      <c r="F862" s="24"/>
     </row>
     <row r="863" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F863" s="26"/>
+      <c r="F863" s="24"/>
     </row>
     <row r="864" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F864" s="26"/>
+      <c r="F864" s="24"/>
     </row>
     <row r="865" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F865" s="26"/>
+      <c r="F865" s="24"/>
     </row>
     <row r="866" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F866" s="26"/>
+      <c r="F866" s="24"/>
     </row>
     <row r="867" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F867" s="26"/>
+      <c r="F867" s="24"/>
     </row>
     <row r="868" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F868" s="26"/>
+      <c r="F868" s="24"/>
     </row>
     <row r="869" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F869" s="26"/>
+      <c r="F869" s="24"/>
     </row>
     <row r="870" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F870" s="26"/>
+      <c r="F870" s="24"/>
     </row>
     <row r="871" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F871" s="26"/>
+      <c r="F871" s="24"/>
     </row>
     <row r="872" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F872" s="26"/>
+      <c r="F872" s="24"/>
     </row>
     <row r="873" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F873" s="26"/>
+      <c r="F873" s="24"/>
     </row>
     <row r="874" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F874" s="26"/>
+      <c r="F874" s="24"/>
     </row>
     <row r="875" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F875" s="26"/>
+      <c r="F875" s="24"/>
     </row>
     <row r="876" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F876" s="26"/>
+      <c r="F876" s="24"/>
     </row>
     <row r="877" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F877" s="26"/>
+      <c r="F877" s="24"/>
     </row>
     <row r="878" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F878" s="26"/>
+      <c r="F878" s="24"/>
     </row>
     <row r="879" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F879" s="26"/>
+      <c r="F879" s="24"/>
     </row>
     <row r="880" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F880" s="26"/>
+      <c r="F880" s="24"/>
     </row>
     <row r="881" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F881" s="26"/>
+      <c r="F881" s="24"/>
     </row>
     <row r="882" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F882" s="26"/>
+      <c r="F882" s="24"/>
     </row>
     <row r="883" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F883" s="26"/>
+      <c r="F883" s="24"/>
     </row>
     <row r="884" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F884" s="26"/>
+      <c r="F884" s="24"/>
     </row>
     <row r="885" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F885" s="26"/>
+      <c r="F885" s="24"/>
     </row>
     <row r="886" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F886" s="26"/>
+      <c r="F886" s="24"/>
     </row>
     <row r="887" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F887" s="26"/>
+      <c r="F887" s="24"/>
     </row>
     <row r="888" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F888" s="26"/>
+      <c r="F888" s="24"/>
     </row>
     <row r="889" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F889" s="26"/>
+      <c r="F889" s="24"/>
     </row>
     <row r="890" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F890" s="26"/>
+      <c r="F890" s="24"/>
     </row>
     <row r="891" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F891" s="26"/>
+      <c r="F891" s="24"/>
     </row>
     <row r="892" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F892" s="26"/>
+      <c r="F892" s="24"/>
     </row>
     <row r="893" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F893" s="26"/>
+      <c r="F893" s="24"/>
     </row>
     <row r="894" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F894" s="26"/>
+      <c r="F894" s="24"/>
     </row>
     <row r="895" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F895" s="26"/>
+      <c r="F895" s="24"/>
     </row>
     <row r="896" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F896" s="26"/>
+      <c r="F896" s="24"/>
     </row>
     <row r="897" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F897" s="26"/>
+      <c r="F897" s="24"/>
     </row>
     <row r="898" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F898" s="26"/>
+      <c r="F898" s="24"/>
     </row>
     <row r="899" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F899" s="26"/>
+      <c r="F899" s="24"/>
     </row>
     <row r="900" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F900" s="26"/>
+      <c r="F900" s="24"/>
     </row>
     <row r="901" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F901" s="26"/>
+      <c r="F901" s="24"/>
     </row>
     <row r="902" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F902" s="26"/>
+      <c r="F902" s="24"/>
     </row>
     <row r="903" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F903" s="26"/>
+      <c r="F903" s="24"/>
     </row>
     <row r="904" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F904" s="26"/>
+      <c r="F904" s="24"/>
     </row>
     <row r="905" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F905" s="26"/>
+      <c r="F905" s="24"/>
     </row>
     <row r="906" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F906" s="26"/>
+      <c r="F906" s="24"/>
     </row>
     <row r="907" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F907" s="26"/>
+      <c r="F907" s="24"/>
     </row>
     <row r="908" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F908" s="26"/>
+      <c r="F908" s="24"/>
     </row>
     <row r="909" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F909" s="26"/>
+      <c r="F909" s="24"/>
     </row>
     <row r="910" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F910" s="26"/>
+      <c r="F910" s="24"/>
     </row>
     <row r="911" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F911" s="26"/>
+      <c r="F911" s="24"/>
     </row>
     <row r="912" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F912" s="26"/>
+      <c r="F912" s="24"/>
     </row>
     <row r="913" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F913" s="26"/>
+      <c r="F913" s="24"/>
     </row>
     <row r="914" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F914" s="26"/>
+      <c r="F914" s="24"/>
     </row>
     <row r="915" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F915" s="26"/>
+      <c r="F915" s="24"/>
     </row>
     <row r="916" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F916" s="26"/>
+      <c r="F916" s="24"/>
     </row>
     <row r="917" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F917" s="26"/>
+      <c r="F917" s="24"/>
     </row>
     <row r="918" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F918" s="26"/>
+      <c r="F918" s="24"/>
     </row>
     <row r="919" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F919" s="26"/>
+      <c r="F919" s="24"/>
     </row>
     <row r="920" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F920" s="26"/>
+      <c r="F920" s="24"/>
     </row>
     <row r="921" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F921" s="26"/>
+      <c r="F921" s="24"/>
     </row>
     <row r="922" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F922" s="26"/>
+      <c r="F922" s="24"/>
     </row>
     <row r="923" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F923" s="26"/>
+      <c r="F923" s="24"/>
     </row>
     <row r="924" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F924" s="26"/>
+      <c r="F924" s="24"/>
     </row>
     <row r="925" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F925" s="26"/>
+      <c r="F925" s="24"/>
     </row>
     <row r="926" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F926" s="26"/>
+      <c r="F926" s="24"/>
     </row>
     <row r="927" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F927" s="26"/>
+      <c r="F927" s="24"/>
     </row>
     <row r="928" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F928" s="26"/>
+      <c r="F928" s="24"/>
     </row>
     <row r="929" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F929" s="26"/>
+      <c r="F929" s="24"/>
     </row>
     <row r="930" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F930" s="26"/>
+      <c r="F930" s="24"/>
     </row>
     <row r="931" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F931" s="26"/>
+      <c r="F931" s="24"/>
     </row>
     <row r="932" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F932" s="26"/>
+      <c r="F932" s="24"/>
     </row>
     <row r="933" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F933" s="26"/>
+      <c r="F933" s="24"/>
     </row>
     <row r="934" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F934" s="26"/>
+      <c r="F934" s="24"/>
     </row>
     <row r="935" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F935" s="26"/>
+      <c r="F935" s="24"/>
     </row>
     <row r="936" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F936" s="26"/>
+      <c r="F936" s="24"/>
     </row>
     <row r="937" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F937" s="26"/>
+      <c r="F937" s="24"/>
     </row>
     <row r="938" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F938" s="26"/>
+      <c r="F938" s="24"/>
     </row>
     <row r="939" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F939" s="26"/>
+      <c r="F939" s="24"/>
     </row>
     <row r="940" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F940" s="26"/>
+      <c r="F940" s="24"/>
     </row>
     <row r="941" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F941" s="26"/>
+      <c r="F941" s="24"/>
     </row>
     <row r="942" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F942" s="26"/>
+      <c r="F942" s="24"/>
     </row>
     <row r="943" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F943" s="26"/>
+      <c r="F943" s="24"/>
     </row>
     <row r="944" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F944" s="26"/>
+      <c r="F944" s="24"/>
     </row>
     <row r="945" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F945" s="26"/>
+      <c r="F945" s="24"/>
     </row>
     <row r="946" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F946" s="26"/>
+      <c r="F946" s="24"/>
     </row>
     <row r="947" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F947" s="26"/>
+      <c r="F947" s="24"/>
     </row>
     <row r="948" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F948" s="26"/>
+      <c r="F948" s="24"/>
     </row>
     <row r="949" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F949" s="26"/>
+      <c r="F949" s="24"/>
     </row>
     <row r="950" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F950" s="26"/>
+      <c r="F950" s="24"/>
     </row>
     <row r="951" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F951" s="26"/>
+      <c r="F951" s="24"/>
     </row>
     <row r="952" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F952" s="26"/>
+      <c r="F952" s="24"/>
     </row>
     <row r="953" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F953" s="26"/>
+      <c r="F953" s="24"/>
     </row>
     <row r="954" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F954" s="26"/>
+      <c r="F954" s="24"/>
     </row>
     <row r="955" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F955" s="26"/>
+      <c r="F955" s="24"/>
     </row>
     <row r="956" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F956" s="26"/>
+      <c r="F956" s="24"/>
     </row>
     <row r="957" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F957" s="26"/>
+      <c r="F957" s="24"/>
     </row>
     <row r="958" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F958" s="26"/>
+      <c r="F958" s="24"/>
     </row>
     <row r="959" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F959" s="26"/>
+      <c r="F959" s="24"/>
     </row>
     <row r="960" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F960" s="26"/>
+      <c r="F960" s="24"/>
     </row>
     <row r="961" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F961" s="26"/>
+      <c r="F961" s="24"/>
     </row>
     <row r="962" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F962" s="26"/>
+      <c r="F962" s="24"/>
     </row>
     <row r="963" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F963" s="26"/>
+      <c r="F963" s="24"/>
     </row>
     <row r="964" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F964" s="26"/>
+      <c r="F964" s="24"/>
     </row>
     <row r="965" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F965" s="26"/>
+      <c r="F965" s="24"/>
     </row>
     <row r="966" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F966" s="26"/>
+      <c r="F966" s="24"/>
     </row>
     <row r="967" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F967" s="26"/>
+      <c r="F967" s="24"/>
     </row>
     <row r="968" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F968" s="26"/>
+      <c r="F968" s="24"/>
     </row>
     <row r="969" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F969" s="26"/>
+      <c r="F969" s="24"/>
     </row>
     <row r="970" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F970" s="26"/>
+      <c r="F970" s="24"/>
     </row>
     <row r="971" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F971" s="26"/>
+      <c r="F971" s="24"/>
     </row>
     <row r="972" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F972" s="26"/>
+      <c r="F972" s="24"/>
     </row>
     <row r="973" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F973" s="26"/>
+      <c r="F973" s="24"/>
     </row>
     <row r="974" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F974" s="26"/>
+      <c r="F974" s="24"/>
     </row>
     <row r="975" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F975" s="26"/>
+      <c r="F975" s="24"/>
     </row>
     <row r="976" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F976" s="26"/>
+      <c r="F976" s="24"/>
     </row>
     <row r="977" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F977" s="26"/>
+      <c r="F977" s="24"/>
     </row>
     <row r="978" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F978" s="26"/>
+      <c r="F978" s="24"/>
     </row>
     <row r="979" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F979" s="26"/>
+      <c r="F979" s="24"/>
     </row>
     <row r="980" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F980" s="26"/>
+      <c r="F980" s="24"/>
     </row>
     <row r="981" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F981" s="26"/>
+      <c r="F981" s="24"/>
     </row>
     <row r="982" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F982" s="26"/>
+      <c r="F982" s="24"/>
     </row>
     <row r="983" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F983" s="26"/>
+      <c r="F983" s="24"/>
     </row>
     <row r="984" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F984" s="26"/>
+      <c r="F984" s="24"/>
     </row>
     <row r="985" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F985" s="26"/>
+      <c r="F985" s="24"/>
     </row>
     <row r="986" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F986" s="26"/>
+      <c r="F986" s="24"/>
     </row>
     <row r="987" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F987" s="26"/>
+      <c r="F987" s="24"/>
     </row>
     <row r="988" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F988" s="26"/>
+      <c r="F988" s="24"/>
     </row>
     <row r="989" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F989" s="26"/>
+      <c r="F989" s="24"/>
     </row>
     <row r="990" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F990" s="26"/>
+      <c r="F990" s="24"/>
     </row>
     <row r="991" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F991" s="26"/>
+      <c r="F991" s="24"/>
     </row>
     <row r="992" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F992" s="26"/>
+      <c r="F992" s="24"/>
     </row>
     <row r="993" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F993" s="26"/>
+      <c r="F993" s="24"/>
     </row>
     <row r="994" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F994" s="26"/>
+      <c r="F994" s="24"/>
     </row>
     <row r="995" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F995" s="26"/>
+      <c r="F995" s="24"/>
     </row>
     <row r="996" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F996" s="26"/>
+      <c r="F996" s="24"/>
     </row>
     <row r="997" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F997" s="26"/>
+      <c r="F997" s="24"/>
     </row>
     <row r="998" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F998" s="26"/>
+      <c r="F998" s="24"/>
     </row>
     <row r="999" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F999" s="26"/>
+      <c r="F999" s="24"/>
     </row>
     <row r="1000" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F1000" s="26"/>
+      <c r="F1000" s="24"/>
     </row>
     <row r="1001" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F1001" s="26"/>
+      <c r="F1001" s="24"/>
+    </row>
+    <row r="1002" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F1002" s="24"/>
+    </row>
+    <row r="1003" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F1003" s="24"/>
+    </row>
+    <row r="1004" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F1004" s="24"/>
+    </row>
+    <row r="1005" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F1005" s="24"/>
+    </row>
+    <row r="1006" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F1006" s="24"/>
+    </row>
+    <row r="1007" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F1007" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7:F14 F16:F21 F23:F26 F29:F33 F35:F41 F43:F47 F49:F51 F53:F55 F57:F59 F62:F64 F66:F68" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7:F12 F14:F19 F21:F24 F27:F29 F31:F37 F39:F43 F45:F50 F52:F60 F62:F64 F67:F70 F72:F74" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
